--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/python-projects/streamlit_chat_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99018E1C-E59E-E140-9E21-43F8667F990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA80456-A03A-FD49-A506-20E4CB2D8632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="5300" windowWidth="35720" windowHeight="22340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -31,19 +31,89 @@
     <t>内容</t>
   </si>
   <si>
+    <t>HTML / CSS</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>HTMLの役割</t>
+  </si>
+  <si>
+    <t>HTML文書の役割に関して、最も正しい記述を選択してください。
+1. HTMLは主にウェブページの見た目やスタイルを定義するために使用される。
+2. HTMLはウェブページの内容と構造を定義するために使用され、スタイルや動作はCSSやJavaScriptで管理される。
+3. HTMLはウェブページの動作やインタラクティビティを制御するために使用される。
+4. HTMLはデータベースとの通信やサーバーサイドの処理を管理するために使用される。</t>
+  </si>
+  <si>
+    <t>CSSの役割</t>
+  </si>
+  <si>
+    <t>CSSの主な役割に関して、最も正しい記述を選択してください。
+1. CSSはウェブページの内容と構造を定義するために使用され、その見た目やスタイルはHTMLで管理される。
+2. CSSはウェブページの動作やインタラクティビティを制御するために使用される。
+3. CSSはウェブページの見た目やスタイルを定義するために使用される。これには、レイアウト、色、フォントなどが含まれる。
+4. CSSはデータベースとの通信やサーバーサイドの処理を管理するために使用される。</t>
+  </si>
+  <si>
+    <t>ボックスモデルの要素</t>
+  </si>
+  <si>
+    <t>CSSのボックスモデルに含まれる要素は何ですか？
+1. マージン、ボーダー、パディング、コンテンツ
+2. パディング、マージン、色、背景
+3. ボーダー、マージン、フォント、サイズ
+4. コンテンツ、色、背景、フォント</t>
+  </si>
+  <si>
+    <t>CSSセレクタ</t>
+  </si>
+  <si>
+    <t>次のCSSセレクタは何を指しているか選択してください: .menu li
+1. クラスが'menu'のすべての&lt;li&gt;要素
+2. 'menu'というIDを持つ要素の中のすべての&lt;li&gt;要素
+3. 'menu'という名前のすべての要素
+4. クラスが'menu'の要素の中のすべての&lt;li&gt;要素</t>
+  </si>
+  <si>
+    <t>HTML/CSSの表示結果</t>
+  </si>
+  <si>
+    <t>次のHTMLとCSSコードが与えられています。このコードのブラウザでの表示結果として、最も正しいものを選んでください。
+HTMLコード:
+```
+&lt;div class="box"&gt;Box 1&lt;/div&gt;
+&lt;div class="box"&gt;Box 2&lt;/div&gt;
+```
+CSSコード:
+```
+.box {
+  width: 100px;
+  height: 100px;
+  margin: 10px;
+  background-color: red;
+  color: white;
+  text-align: center;
+  line-height: 100px;
+}
+```
+1. 二つの赤いボックスが水平に並んでおり、各ボックスには中央揃えで'Box 1'と'Box 2'と書かれている。
+2. 二つの赤いボックスが垂直に並んでおり、各ボックスには中央揃えで'Box 1'と'Box 2'と書かれている。
+3. 二つの赤いボックスが重なっており、各ボックスには中央揃えで'Box 1'と'Box 2'と書かれている。
+4. 二つの赤いボックスが水平に並んでおり、各ボックスの左上に'Box 1'と'Box 2'と書かれている。</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
     <t>文字列と数値</t>
   </si>
   <si>
+    <t>文字列の"10"と数値の10には、どのような性質の違いがありますか</t>
+  </si>
+  <si>
     <t>繰り返し</t>
-  </si>
-  <si>
-    <t>条件分岐</t>
-  </si>
-  <si>
-    <t>クラスとインスタンス</t>
   </si>
   <si>
     <t>以下のRubyコードを実行したときの結果を選んでください。
@@ -59,11 +129,22 @@
 2. 16
 3. 20
 4. 30</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Ruby</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下のRubyコードを実行したときの結果を選んでください。
+```
+colors = ['red', 'blue', 'green']
+colors.each_with_index do |color, index|
+  puts "#{index}: #{color}"
+end
+```
+1. "0: red 1: blue 2: green"
+2. "red blue green"
+3. "1: red 2: blue 3: green"
+4. "0: red\n1: blue\n2: green"</t>
+  </si>
+  <si>
+    <t>条件分岐</t>
   </si>
   <si>
     <t>以下のRubyコードを実行したときの結果を選んでください。
@@ -81,7 +162,9 @@
 2. 3の倍数
 3. その他
 4. 出力なし</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラスとインスタンス</t>
   </si>
   <si>
     <t>以下のRubyコードを実行したときの結果を選んでください。
@@ -101,21 +184,179 @@
 2. "Animal says Hello!"
 3. "Hello!"
 4. エラーが発生する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>文字列の"10"と数値の10では、行える操作にどのような違いがありますか</t>
-    <rPh sb="17" eb="18">
-      <t>オコナエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>MVCとは</t>
+  </si>
+  <si>
+    <t>MVCアーキテクチャとは何を指す用語ですか？
+1. モデルとビューの間でデータをやり取りするためのプログラミング言語
+2. コンピュータネットワーク内でデータを転送するための通信プロトコル
+3. 一つの機能を、モデル、ビュー、コントローラーの3つの部分に分けて開発する設計パターン
+4. データベースとユーザーインターフェースを直接接続するシステム</t>
+  </si>
+  <si>
+    <t>DRY</t>
+  </si>
+  <si>
+    <t>Railsアプリケーションにおいて「DRY（Don't Repeat Yourself）」原則が推奨されるのはなぜですか？
+1. パフォーマンスを向上させるため
+2. コードの重複を避け、メンテナンスを容易にするため
+3. セキュリティを強化するため
+4. データベースの負荷を減らすため</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>以下の記述を行うことで、どのような機能を実装できますか
+```
+class User &lt; ApplicationRecord
+  has_many :posts
+end
+```
+1. ユーザーが持つすべてのポストのリスト
+2. ユーザーが最後に作成したポスト
+3. 一つのユーザーに関連するすべてのポスト
+4. ポストの総数</t>
+  </si>
+  <si>
+    <t>Railsコマンド</t>
+  </si>
+  <si>
+    <t>このRailsコマンドはどのような機能を果たしますか？
+```
+rails db:migrate
+```
+1. 新しいデータベースを作成する
+2. データベースに対するマイグレーションを実行する
+3. すべてのテーブルを削除する
+4. データベースのスキーマを表示する</t>
+  </si>
+  <si>
+    <t>ルーティング</t>
+  </si>
+  <si>
+    <t>このRailsルーティングのコードはどのようなURLにマッチしますか？
+```
+get 'photos/:id', to: 'photos#show'
+```
+1. /photos/show
+2. /photos
+3. /photos/1
+4. /photos?id=1</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Linuxとは何ですか？
+1. ウェブブラウザ
+2. テキストエディタ
+3. オペレーティングシステム
+4. プログラミング言語</t>
+  </si>
+  <si>
+    <t>LInuxの特徴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linuxの最も特徴的な点は何ですか？
+1. 高価格
+2. オープンソースである
+3. Microsoftによって開発された
+4. ゲーム専用OS
+</t>
+  </si>
+  <si>
+    <t>Linuxコマンド</t>
+  </si>
+  <si>
+    <t>Linuxで他のディレクトリに移動するコマンドはどれですか？
+1. cd
+2. md
+3. ls
+4. pwd</t>
+  </si>
+  <si>
+    <t>Linuxで現在のディレクトリを確認するコマンドはどれですか？
+1. cd
+2. pwd
+3. ls
+4. dir</t>
+  </si>
+  <si>
+    <t>Linuxでファイルを削除するコマンドはどれですか？
+1. del
+2. remove
+3. rm
+4. erase</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>HTTPの略称は何を意味しますか？
+1. Hyper Text Markup Language
+2. High Transfer Protocol
+3. Hyper Text Transfer Protocol
+4. Hyper Transfer Markup Language</t>
+  </si>
+  <si>
+    <t>サーバー</t>
+  </si>
+  <si>
+    <t>サーバーは通常、次のうちどのような役割を果たしますか？
+1. データの送信のみ
+2. データの受信のみ
+3. データの保存とリクエストへの応答
+4. ネットワークのセキュリティ管理</t>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+  </si>
+  <si>
+    <t>HTTPメソッドの「POST」は、通常何のために使用されますか？
+1. 既存のリソースの更新
+2. リソースの削除
+3. 新しいリソースの作成
+4. リソース情報の取得</t>
+  </si>
+  <si>
+    <t>HTTPステータス</t>
+  </si>
+  <si>
+    <t>ウェブサイトで404エラーが表示される主な理由は何ですか？
+1. サーバーがダウンしている
+2. リクエストされたページがサーバー上に存在しない
+3. サーバーがビジー状態
+4. ネットワークの問題によりサーバーに到達できない</t>
+  </si>
+  <si>
+    <t>ネットワークセキュリティ</t>
+  </si>
+  <si>
+    <t>CSRF攻撃とは何ですか？
+1. サーバーのセキュリティシステムをバイパスするためにパスワードを推測する攻撃
+2. ユーザーを騙して偽のウェブサイトにアクセスさせる攻撃
+3. ユーザーのブラウザを利用して、そのユーザーの知らないうちに悪意のある操作を実行する攻撃
+4. ユーザーのデバイスにマルウェアをインストールする攻撃</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,10 +371,33 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="Söhne"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Söhne"/>
     </font>
     <font>
       <sz val="6"/>
@@ -145,12 +409,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF374151"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,20 +458,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -434,23 +695,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="3" max="3" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -461,11 +722,11 @@
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -473,10 +734,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -484,9 +745,9 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -495,9 +756,9 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -506,118 +767,3199 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="1">
+        <v>201</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="1">
+        <v>202</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="1">
+        <v>203</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="1">
+        <v>204</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>205</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="1">
+        <v>300</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1">
+        <v>301</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="A16" s="1">
+        <v>302</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
+        <v>303</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>304</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>305</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>400</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>401</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>402</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>403</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>404</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>405</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>500</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>501</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>502</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>503</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>504</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>505</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" ht="13">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" ht="13">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" ht="13">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" ht="13">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" ht="13">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" ht="13">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" ht="13">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" ht="13">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" ht="13">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" ht="13">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" ht="13">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" ht="13">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" ht="13">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" ht="13">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" ht="13">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" ht="13">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" ht="13">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" ht="13">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" ht="13">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" ht="13">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" ht="13">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2" ht="13">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2" ht="13">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2" ht="13">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" ht="13">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" ht="13">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" ht="13">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" ht="13">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" ht="13">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" ht="13">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" ht="13">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" ht="13">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" ht="13">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" ht="13">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" ht="13">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" ht="13">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" ht="13">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" ht="13">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" ht="13">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" ht="13">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" ht="13">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" ht="13">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" ht="13">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" ht="13">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" ht="13">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" ht="13">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2" ht="13">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2" ht="13">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2" ht="13">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2" ht="13">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="2:2" ht="13">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="2:2" ht="13">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="2:2" ht="13">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="2:2" ht="13">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="2:2" ht="13">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="2:2" ht="13">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="2:2" ht="13">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="2:2" ht="13">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="2:2" ht="13">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="2:2" ht="13">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="2:2" ht="13">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="2:2" ht="13">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="2:2" ht="13">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="2:2" ht="13">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="2:2" ht="13">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:2" ht="13">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2" ht="13">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="2:2" ht="13">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="2:2" ht="13">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="2:2" ht="13">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="2:2" ht="13">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="2:2" ht="13">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="2:2" ht="13">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="2:2" ht="13">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="2:2" ht="13">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="2:2" ht="13">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="2:2" ht="13">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:2" ht="13">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" ht="13">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="2:2" ht="13">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="2:2" ht="13">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="2:2" ht="13">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="2:2" ht="13">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="2:2" ht="13">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="2:2" ht="13">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="2:2" ht="13">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="2:2" ht="13">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="2:2" ht="13">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="2:2" ht="13">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="2:2" ht="13">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="2:2" ht="13">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="2:2" ht="13">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="2:2" ht="13">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="2:2" ht="13">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="2:2" ht="13">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="2:2" ht="13">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="2:2" ht="13">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="2:2" ht="13">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="2:2" ht="13">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="2:2" ht="13">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="2:2" ht="13">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="2:2" ht="13">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="2:2" ht="13">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="2:2" ht="13">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="2:2" ht="13">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="2:2" ht="13">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="2:2" ht="13">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="2:2" ht="13">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="2:2" ht="13">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="2:2" ht="13">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="2:2" ht="13">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="2:2" ht="13">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="2:2" ht="13">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="2:2" ht="13">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="2:2" ht="13">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="2:2" ht="13">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="2:2" ht="13">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="2:2" ht="13">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="2:2" ht="13">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="2:2" ht="13">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:2" ht="13">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:2" ht="13">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:2" ht="13">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:2" ht="13">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:2" ht="13">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:2" ht="13">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" ht="13">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" ht="13">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" ht="13">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" ht="13">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" ht="13">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" ht="13">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" ht="13">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" ht="13">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" ht="13">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" ht="13">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" ht="13">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" ht="13">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" ht="13">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" ht="13">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" ht="13">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" ht="13">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" ht="13">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" ht="13">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" ht="13">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" ht="13">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" ht="13">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" ht="13">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" ht="13">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" ht="13">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" ht="13">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" ht="13">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" ht="13">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" ht="13">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" ht="13">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" ht="13">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" ht="13">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" ht="13">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" ht="13">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" ht="13">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" ht="13">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" ht="13">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" ht="13">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" ht="13">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" ht="13">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" ht="13">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" ht="13">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" ht="13">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" ht="13">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" ht="13">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" ht="13">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" ht="13">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" ht="13">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" ht="13">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" ht="13">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" ht="13">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" ht="13">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" ht="13">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" ht="13">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" ht="13">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" ht="13">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" ht="13">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" ht="13">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" ht="13">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" ht="13">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" ht="13">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" ht="13">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" ht="13">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" ht="13">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" ht="13">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" ht="13">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" ht="13">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" ht="13">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" ht="13">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" ht="13">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" ht="13">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" ht="13">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" ht="13">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" ht="13">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" ht="13">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" ht="13">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" ht="13">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" ht="13">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" ht="13">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" ht="13">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" ht="13">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" ht="13">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" ht="13">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" ht="13">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" ht="13">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" ht="13">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" ht="13">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" ht="13">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" ht="13">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" ht="13">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" ht="13">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" ht="13">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" ht="13">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" ht="13">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" ht="13">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" ht="13">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" ht="13">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" ht="13">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" ht="13">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" ht="13">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" ht="13">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" ht="13">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" ht="13">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" ht="13">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" ht="13">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" ht="13">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" ht="13">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" ht="13">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" ht="13">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" ht="13">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" ht="13">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" ht="13">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" ht="13">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" ht="13">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" ht="13">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" ht="13">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" ht="13">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" ht="13">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" ht="13">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" ht="13">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" ht="13">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" ht="13">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" ht="13">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" ht="13">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" ht="13">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" ht="13">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" ht="13">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" ht="13">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" ht="13">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" ht="13">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" ht="13">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" ht="13">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" ht="13">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" ht="13">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" ht="13">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" ht="13">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" ht="13">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" ht="13">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" ht="13">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" ht="13">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" ht="13">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" ht="13">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" ht="13">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" ht="13">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" ht="13">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" ht="13">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" ht="13">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" ht="13">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" ht="13">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" ht="13">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" ht="13">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" ht="13">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" ht="13">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" ht="13">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" ht="13">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" ht="13">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" ht="13">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" ht="13">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" ht="13">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" ht="13">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" ht="13">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" ht="13">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" ht="13">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" ht="13">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" ht="13">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" ht="13">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" ht="13">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" ht="13">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" ht="13">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" ht="13">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" ht="13">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" ht="13">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" ht="13">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" ht="13">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" ht="13">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" ht="13">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" ht="13">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" ht="13">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" ht="13">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" ht="13">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" ht="13">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" ht="13">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" ht="13">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" ht="13">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" ht="13">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" ht="13">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" ht="13">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" ht="13">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" ht="13">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" ht="13">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" ht="13">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" ht="13">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" ht="13">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" ht="13">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" ht="13">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" ht="13">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" ht="13">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" ht="13">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" ht="13">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" ht="13">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" ht="13">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" ht="13">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" ht="13">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" ht="13">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" ht="13">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" ht="13">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" ht="13">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" ht="13">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" ht="13">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" ht="13">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" ht="13">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" ht="13">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" ht="13">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" ht="13">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" ht="13">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" ht="13">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" ht="13">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" ht="13">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" ht="13">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" ht="13">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" ht="13">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" ht="13">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" ht="13">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" ht="13">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" ht="13">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" ht="13">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" ht="13">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" ht="13">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" ht="13">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" ht="13">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" ht="13">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" ht="13">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" ht="13">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" ht="13">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" ht="13">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" ht="13">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" ht="13">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" ht="13">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" ht="13">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" ht="13">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" ht="13">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" ht="13">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" ht="13">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" ht="13">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" ht="13">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" ht="13">
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="2:2" ht="13">
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="2:2" ht="13">
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="2:2" ht="13">
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="2:2" ht="13">
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="2:2" ht="13">
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="2:2" ht="13">
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="2:2" ht="13">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="2:2" ht="13">
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="2:2" ht="13">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="2:2" ht="13">
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="2:2" ht="13">
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="2:2" ht="13">
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="2:2" ht="13">
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="2:2" ht="13">
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="2:2" ht="13">
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="2:2" ht="13">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="2:2" ht="13">
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="2:2" ht="13">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="2:2" ht="13">
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="2:2" ht="13">
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="2:2" ht="13">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="2:2" ht="13">
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="2:2" ht="13">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="2:2" ht="13">
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="2:2" ht="13">
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="2:2" ht="13">
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="2:2" ht="13">
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="2:2" ht="13">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="2:2" ht="13">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="2:2" ht="13">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="2:2" ht="13">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="2:2" ht="13">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="2:2" ht="13">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="2:2" ht="13">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="2:2" ht="13">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="2:2" ht="13">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="2:2" ht="13">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" ht="13">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="2:2" ht="13">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="2:2" ht="13">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="2:2" ht="13">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="2:2" ht="13">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="2:2" ht="13">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="2:2" ht="13">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" ht="13">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="2:2" ht="13">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="2:2" ht="13">
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="2:2" ht="13">
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="2:2" ht="13">
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="2:2" ht="13">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="2:2" ht="13">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="2:2" ht="13">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="2:2" ht="13">
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="2:2" ht="13">
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="2:2" ht="13">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="2:2" ht="13">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="2:2" ht="13">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="2:2" ht="13">
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="2:2" ht="13">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="2:2" ht="13">
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="2:2" ht="13">
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="2:2" ht="13">
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="2:2" ht="13">
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="2:2" ht="13">
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="2:2" ht="13">
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="2:2" ht="13">
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="2:2" ht="13">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" ht="13">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="2:2" ht="13">
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="2:2" ht="13">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="2:2" ht="13">
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="2:2" ht="13">
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="2:2" ht="13">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="2:2" ht="13">
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="2:2" ht="13">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="2:2" ht="13">
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="2:2" ht="13">
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="2:2" ht="13">
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="2:2" ht="13">
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="2:2" ht="13">
+      <c r="B533" s="2"/>
+    </row>
+    <row r="534" spans="2:2" ht="13">
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="2:2" ht="13">
+      <c r="B535" s="2"/>
+    </row>
+    <row r="536" spans="2:2" ht="13">
+      <c r="B536" s="2"/>
+    </row>
+    <row r="537" spans="2:2" ht="13">
+      <c r="B537" s="2"/>
+    </row>
+    <row r="538" spans="2:2" ht="13">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="2:2" ht="13">
+      <c r="B539" s="2"/>
+    </row>
+    <row r="540" spans="2:2" ht="13">
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="2:2" ht="13">
+      <c r="B541" s="2"/>
+    </row>
+    <row r="542" spans="2:2" ht="13">
+      <c r="B542" s="2"/>
+    </row>
+    <row r="543" spans="2:2" ht="13">
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="2:2" ht="13">
+      <c r="B544" s="2"/>
+    </row>
+    <row r="545" spans="2:2" ht="13">
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="2:2" ht="13">
+      <c r="B546" s="2"/>
+    </row>
+    <row r="547" spans="2:2" ht="13">
+      <c r="B547" s="2"/>
+    </row>
+    <row r="548" spans="2:2" ht="13">
+      <c r="B548" s="2"/>
+    </row>
+    <row r="549" spans="2:2" ht="13">
+      <c r="B549" s="2"/>
+    </row>
+    <row r="550" spans="2:2" ht="13">
+      <c r="B550" s="2"/>
+    </row>
+    <row r="551" spans="2:2" ht="13">
+      <c r="B551" s="2"/>
+    </row>
+    <row r="552" spans="2:2" ht="13">
+      <c r="B552" s="2"/>
+    </row>
+    <row r="553" spans="2:2" ht="13">
+      <c r="B553" s="2"/>
+    </row>
+    <row r="554" spans="2:2" ht="13">
+      <c r="B554" s="2"/>
+    </row>
+    <row r="555" spans="2:2" ht="13">
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="2:2" ht="13">
+      <c r="B556" s="2"/>
+    </row>
+    <row r="557" spans="2:2" ht="13">
+      <c r="B557" s="2"/>
+    </row>
+    <row r="558" spans="2:2" ht="13">
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="2:2" ht="13">
+      <c r="B559" s="2"/>
+    </row>
+    <row r="560" spans="2:2" ht="13">
+      <c r="B560" s="2"/>
+    </row>
+    <row r="561" spans="2:2" ht="13">
+      <c r="B561" s="2"/>
+    </row>
+    <row r="562" spans="2:2" ht="13">
+      <c r="B562" s="2"/>
+    </row>
+    <row r="563" spans="2:2" ht="13">
+      <c r="B563" s="2"/>
+    </row>
+    <row r="564" spans="2:2" ht="13">
+      <c r="B564" s="2"/>
+    </row>
+    <row r="565" spans="2:2" ht="13">
+      <c r="B565" s="2"/>
+    </row>
+    <row r="566" spans="2:2" ht="13">
+      <c r="B566" s="2"/>
+    </row>
+    <row r="567" spans="2:2" ht="13">
+      <c r="B567" s="2"/>
+    </row>
+    <row r="568" spans="2:2" ht="13">
+      <c r="B568" s="2"/>
+    </row>
+    <row r="569" spans="2:2" ht="13">
+      <c r="B569" s="2"/>
+    </row>
+    <row r="570" spans="2:2" ht="13">
+      <c r="B570" s="2"/>
+    </row>
+    <row r="571" spans="2:2" ht="13">
+      <c r="B571" s="2"/>
+    </row>
+    <row r="572" spans="2:2" ht="13">
+      <c r="B572" s="2"/>
+    </row>
+    <row r="573" spans="2:2" ht="13">
+      <c r="B573" s="2"/>
+    </row>
+    <row r="574" spans="2:2" ht="13">
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="2:2" ht="13">
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="2:2" ht="13">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="2:2" ht="13">
+      <c r="B577" s="2"/>
+    </row>
+    <row r="578" spans="2:2" ht="13">
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="2:2" ht="13">
+      <c r="B579" s="2"/>
+    </row>
+    <row r="580" spans="2:2" ht="13">
+      <c r="B580" s="2"/>
+    </row>
+    <row r="581" spans="2:2" ht="13">
+      <c r="B581" s="2"/>
+    </row>
+    <row r="582" spans="2:2" ht="13">
+      <c r="B582" s="2"/>
+    </row>
+    <row r="583" spans="2:2" ht="13">
+      <c r="B583" s="2"/>
+    </row>
+    <row r="584" spans="2:2" ht="13">
+      <c r="B584" s="2"/>
+    </row>
+    <row r="585" spans="2:2" ht="13">
+      <c r="B585" s="2"/>
+    </row>
+    <row r="586" spans="2:2" ht="13">
+      <c r="B586" s="2"/>
+    </row>
+    <row r="587" spans="2:2" ht="13">
+      <c r="B587" s="2"/>
+    </row>
+    <row r="588" spans="2:2" ht="13">
+      <c r="B588" s="2"/>
+    </row>
+    <row r="589" spans="2:2" ht="13">
+      <c r="B589" s="2"/>
+    </row>
+    <row r="590" spans="2:2" ht="13">
+      <c r="B590" s="2"/>
+    </row>
+    <row r="591" spans="2:2" ht="13">
+      <c r="B591" s="2"/>
+    </row>
+    <row r="592" spans="2:2" ht="13">
+      <c r="B592" s="2"/>
+    </row>
+    <row r="593" spans="2:2" ht="13">
+      <c r="B593" s="2"/>
+    </row>
+    <row r="594" spans="2:2" ht="13">
+      <c r="B594" s="2"/>
+    </row>
+    <row r="595" spans="2:2" ht="13">
+      <c r="B595" s="2"/>
+    </row>
+    <row r="596" spans="2:2" ht="13">
+      <c r="B596" s="2"/>
+    </row>
+    <row r="597" spans="2:2" ht="13">
+      <c r="B597" s="2"/>
+    </row>
+    <row r="598" spans="2:2" ht="13">
+      <c r="B598" s="2"/>
+    </row>
+    <row r="599" spans="2:2" ht="13">
+      <c r="B599" s="2"/>
+    </row>
+    <row r="600" spans="2:2" ht="13">
+      <c r="B600" s="2"/>
+    </row>
+    <row r="601" spans="2:2" ht="13">
+      <c r="B601" s="2"/>
+    </row>
+    <row r="602" spans="2:2" ht="13">
+      <c r="B602" s="2"/>
+    </row>
+    <row r="603" spans="2:2" ht="13">
+      <c r="B603" s="2"/>
+    </row>
+    <row r="604" spans="2:2" ht="13">
+      <c r="B604" s="2"/>
+    </row>
+    <row r="605" spans="2:2" ht="13">
+      <c r="B605" s="2"/>
+    </row>
+    <row r="606" spans="2:2" ht="13">
+      <c r="B606" s="2"/>
+    </row>
+    <row r="607" spans="2:2" ht="13">
+      <c r="B607" s="2"/>
+    </row>
+    <row r="608" spans="2:2" ht="13">
+      <c r="B608" s="2"/>
+    </row>
+    <row r="609" spans="2:2" ht="13">
+      <c r="B609" s="2"/>
+    </row>
+    <row r="610" spans="2:2" ht="13">
+      <c r="B610" s="2"/>
+    </row>
+    <row r="611" spans="2:2" ht="13">
+      <c r="B611" s="2"/>
+    </row>
+    <row r="612" spans="2:2" ht="13">
+      <c r="B612" s="2"/>
+    </row>
+    <row r="613" spans="2:2" ht="13">
+      <c r="B613" s="2"/>
+    </row>
+    <row r="614" spans="2:2" ht="13">
+      <c r="B614" s="2"/>
+    </row>
+    <row r="615" spans="2:2" ht="13">
+      <c r="B615" s="2"/>
+    </row>
+    <row r="616" spans="2:2" ht="13">
+      <c r="B616" s="2"/>
+    </row>
+    <row r="617" spans="2:2" ht="13">
+      <c r="B617" s="2"/>
+    </row>
+    <row r="618" spans="2:2" ht="13">
+      <c r="B618" s="2"/>
+    </row>
+    <row r="619" spans="2:2" ht="13">
+      <c r="B619" s="2"/>
+    </row>
+    <row r="620" spans="2:2" ht="13">
+      <c r="B620" s="2"/>
+    </row>
+    <row r="621" spans="2:2" ht="13">
+      <c r="B621" s="2"/>
+    </row>
+    <row r="622" spans="2:2" ht="13">
+      <c r="B622" s="2"/>
+    </row>
+    <row r="623" spans="2:2" ht="13">
+      <c r="B623" s="2"/>
+    </row>
+    <row r="624" spans="2:2" ht="13">
+      <c r="B624" s="2"/>
+    </row>
+    <row r="625" spans="2:2" ht="13">
+      <c r="B625" s="2"/>
+    </row>
+    <row r="626" spans="2:2" ht="13">
+      <c r="B626" s="2"/>
+    </row>
+    <row r="627" spans="2:2" ht="13">
+      <c r="B627" s="2"/>
+    </row>
+    <row r="628" spans="2:2" ht="13">
+      <c r="B628" s="2"/>
+    </row>
+    <row r="629" spans="2:2" ht="13">
+      <c r="B629" s="2"/>
+    </row>
+    <row r="630" spans="2:2" ht="13">
+      <c r="B630" s="2"/>
+    </row>
+    <row r="631" spans="2:2" ht="13">
+      <c r="B631" s="2"/>
+    </row>
+    <row r="632" spans="2:2" ht="13">
+      <c r="B632" s="2"/>
+    </row>
+    <row r="633" spans="2:2" ht="13">
+      <c r="B633" s="2"/>
+    </row>
+    <row r="634" spans="2:2" ht="13">
+      <c r="B634" s="2"/>
+    </row>
+    <row r="635" spans="2:2" ht="13">
+      <c r="B635" s="2"/>
+    </row>
+    <row r="636" spans="2:2" ht="13">
+      <c r="B636" s="2"/>
+    </row>
+    <row r="637" spans="2:2" ht="13">
+      <c r="B637" s="2"/>
+    </row>
+    <row r="638" spans="2:2" ht="13">
+      <c r="B638" s="2"/>
+    </row>
+    <row r="639" spans="2:2" ht="13">
+      <c r="B639" s="2"/>
+    </row>
+    <row r="640" spans="2:2" ht="13">
+      <c r="B640" s="2"/>
+    </row>
+    <row r="641" spans="2:2" ht="13">
+      <c r="B641" s="2"/>
+    </row>
+    <row r="642" spans="2:2" ht="13">
+      <c r="B642" s="2"/>
+    </row>
+    <row r="643" spans="2:2" ht="13">
+      <c r="B643" s="2"/>
+    </row>
+    <row r="644" spans="2:2" ht="13">
+      <c r="B644" s="2"/>
+    </row>
+    <row r="645" spans="2:2" ht="13">
+      <c r="B645" s="2"/>
+    </row>
+    <row r="646" spans="2:2" ht="13">
+      <c r="B646" s="2"/>
+    </row>
+    <row r="647" spans="2:2" ht="13">
+      <c r="B647" s="2"/>
+    </row>
+    <row r="648" spans="2:2" ht="13">
+      <c r="B648" s="2"/>
+    </row>
+    <row r="649" spans="2:2" ht="13">
+      <c r="B649" s="2"/>
+    </row>
+    <row r="650" spans="2:2" ht="13">
+      <c r="B650" s="2"/>
+    </row>
+    <row r="651" spans="2:2" ht="13">
+      <c r="B651" s="2"/>
+    </row>
+    <row r="652" spans="2:2" ht="13">
+      <c r="B652" s="2"/>
+    </row>
+    <row r="653" spans="2:2" ht="13">
+      <c r="B653" s="2"/>
+    </row>
+    <row r="654" spans="2:2" ht="13">
+      <c r="B654" s="2"/>
+    </row>
+    <row r="655" spans="2:2" ht="13">
+      <c r="B655" s="2"/>
+    </row>
+    <row r="656" spans="2:2" ht="13">
+      <c r="B656" s="2"/>
+    </row>
+    <row r="657" spans="2:2" ht="13">
+      <c r="B657" s="2"/>
+    </row>
+    <row r="658" spans="2:2" ht="13">
+      <c r="B658" s="2"/>
+    </row>
+    <row r="659" spans="2:2" ht="13">
+      <c r="B659" s="2"/>
+    </row>
+    <row r="660" spans="2:2" ht="13">
+      <c r="B660" s="2"/>
+    </row>
+    <row r="661" spans="2:2" ht="13">
+      <c r="B661" s="2"/>
+    </row>
+    <row r="662" spans="2:2" ht="13">
+      <c r="B662" s="2"/>
+    </row>
+    <row r="663" spans="2:2" ht="13">
+      <c r="B663" s="2"/>
+    </row>
+    <row r="664" spans="2:2" ht="13">
+      <c r="B664" s="2"/>
+    </row>
+    <row r="665" spans="2:2" ht="13">
+      <c r="B665" s="2"/>
+    </row>
+    <row r="666" spans="2:2" ht="13">
+      <c r="B666" s="2"/>
+    </row>
+    <row r="667" spans="2:2" ht="13">
+      <c r="B667" s="2"/>
+    </row>
+    <row r="668" spans="2:2" ht="13">
+      <c r="B668" s="2"/>
+    </row>
+    <row r="669" spans="2:2" ht="13">
+      <c r="B669" s="2"/>
+    </row>
+    <row r="670" spans="2:2" ht="13">
+      <c r="B670" s="2"/>
+    </row>
+    <row r="671" spans="2:2" ht="13">
+      <c r="B671" s="2"/>
+    </row>
+    <row r="672" spans="2:2" ht="13">
+      <c r="B672" s="2"/>
+    </row>
+    <row r="673" spans="2:2" ht="13">
+      <c r="B673" s="2"/>
+    </row>
+    <row r="674" spans="2:2" ht="13">
+      <c r="B674" s="2"/>
+    </row>
+    <row r="675" spans="2:2" ht="13">
+      <c r="B675" s="2"/>
+    </row>
+    <row r="676" spans="2:2" ht="13">
+      <c r="B676" s="2"/>
+    </row>
+    <row r="677" spans="2:2" ht="13">
+      <c r="B677" s="2"/>
+    </row>
+    <row r="678" spans="2:2" ht="13">
+      <c r="B678" s="2"/>
+    </row>
+    <row r="679" spans="2:2" ht="13">
+      <c r="B679" s="2"/>
+    </row>
+    <row r="680" spans="2:2" ht="13">
+      <c r="B680" s="2"/>
+    </row>
+    <row r="681" spans="2:2" ht="13">
+      <c r="B681" s="2"/>
+    </row>
+    <row r="682" spans="2:2" ht="13">
+      <c r="B682" s="2"/>
+    </row>
+    <row r="683" spans="2:2" ht="13">
+      <c r="B683" s="2"/>
+    </row>
+    <row r="684" spans="2:2" ht="13">
+      <c r="B684" s="2"/>
+    </row>
+    <row r="685" spans="2:2" ht="13">
+      <c r="B685" s="2"/>
+    </row>
+    <row r="686" spans="2:2" ht="13">
+      <c r="B686" s="2"/>
+    </row>
+    <row r="687" spans="2:2" ht="13">
+      <c r="B687" s="2"/>
+    </row>
+    <row r="688" spans="2:2" ht="13">
+      <c r="B688" s="2"/>
+    </row>
+    <row r="689" spans="2:2" ht="13">
+      <c r="B689" s="2"/>
+    </row>
+    <row r="690" spans="2:2" ht="13">
+      <c r="B690" s="2"/>
+    </row>
+    <row r="691" spans="2:2" ht="13">
+      <c r="B691" s="2"/>
+    </row>
+    <row r="692" spans="2:2" ht="13">
+      <c r="B692" s="2"/>
+    </row>
+    <row r="693" spans="2:2" ht="13">
+      <c r="B693" s="2"/>
+    </row>
+    <row r="694" spans="2:2" ht="13">
+      <c r="B694" s="2"/>
+    </row>
+    <row r="695" spans="2:2" ht="13">
+      <c r="B695" s="2"/>
+    </row>
+    <row r="696" spans="2:2" ht="13">
+      <c r="B696" s="2"/>
+    </row>
+    <row r="697" spans="2:2" ht="13">
+      <c r="B697" s="2"/>
+    </row>
+    <row r="698" spans="2:2" ht="13">
+      <c r="B698" s="2"/>
+    </row>
+    <row r="699" spans="2:2" ht="13">
+      <c r="B699" s="2"/>
+    </row>
+    <row r="700" spans="2:2" ht="13">
+      <c r="B700" s="2"/>
+    </row>
+    <row r="701" spans="2:2" ht="13">
+      <c r="B701" s="2"/>
+    </row>
+    <row r="702" spans="2:2" ht="13">
+      <c r="B702" s="2"/>
+    </row>
+    <row r="703" spans="2:2" ht="13">
+      <c r="B703" s="2"/>
+    </row>
+    <row r="704" spans="2:2" ht="13">
+      <c r="B704" s="2"/>
+    </row>
+    <row r="705" spans="2:2" ht="13">
+      <c r="B705" s="2"/>
+    </row>
+    <row r="706" spans="2:2" ht="13">
+      <c r="B706" s="2"/>
+    </row>
+    <row r="707" spans="2:2" ht="13">
+      <c r="B707" s="2"/>
+    </row>
+    <row r="708" spans="2:2" ht="13">
+      <c r="B708" s="2"/>
+    </row>
+    <row r="709" spans="2:2" ht="13">
+      <c r="B709" s="2"/>
+    </row>
+    <row r="710" spans="2:2" ht="13">
+      <c r="B710" s="2"/>
+    </row>
+    <row r="711" spans="2:2" ht="13">
+      <c r="B711" s="2"/>
+    </row>
+    <row r="712" spans="2:2" ht="13">
+      <c r="B712" s="2"/>
+    </row>
+    <row r="713" spans="2:2" ht="13">
+      <c r="B713" s="2"/>
+    </row>
+    <row r="714" spans="2:2" ht="13">
+      <c r="B714" s="2"/>
+    </row>
+    <row r="715" spans="2:2" ht="13">
+      <c r="B715" s="2"/>
+    </row>
+    <row r="716" spans="2:2" ht="13">
+      <c r="B716" s="2"/>
+    </row>
+    <row r="717" spans="2:2" ht="13">
+      <c r="B717" s="2"/>
+    </row>
+    <row r="718" spans="2:2" ht="13">
+      <c r="B718" s="2"/>
+    </row>
+    <row r="719" spans="2:2" ht="13">
+      <c r="B719" s="2"/>
+    </row>
+    <row r="720" spans="2:2" ht="13">
+      <c r="B720" s="2"/>
+    </row>
+    <row r="721" spans="2:2" ht="13">
+      <c r="B721" s="2"/>
+    </row>
+    <row r="722" spans="2:2" ht="13">
+      <c r="B722" s="2"/>
+    </row>
+    <row r="723" spans="2:2" ht="13">
+      <c r="B723" s="2"/>
+    </row>
+    <row r="724" spans="2:2" ht="13">
+      <c r="B724" s="2"/>
+    </row>
+    <row r="725" spans="2:2" ht="13">
+      <c r="B725" s="2"/>
+    </row>
+    <row r="726" spans="2:2" ht="13">
+      <c r="B726" s="2"/>
+    </row>
+    <row r="727" spans="2:2" ht="13">
+      <c r="B727" s="2"/>
+    </row>
+    <row r="728" spans="2:2" ht="13">
+      <c r="B728" s="2"/>
+    </row>
+    <row r="729" spans="2:2" ht="13">
+      <c r="B729" s="2"/>
+    </row>
+    <row r="730" spans="2:2" ht="13">
+      <c r="B730" s="2"/>
+    </row>
+    <row r="731" spans="2:2" ht="13">
+      <c r="B731" s="2"/>
+    </row>
+    <row r="732" spans="2:2" ht="13">
+      <c r="B732" s="2"/>
+    </row>
+    <row r="733" spans="2:2" ht="13">
+      <c r="B733" s="2"/>
+    </row>
+    <row r="734" spans="2:2" ht="13">
+      <c r="B734" s="2"/>
+    </row>
+    <row r="735" spans="2:2" ht="13">
+      <c r="B735" s="2"/>
+    </row>
+    <row r="736" spans="2:2" ht="13">
+      <c r="B736" s="2"/>
+    </row>
+    <row r="737" spans="2:2" ht="13">
+      <c r="B737" s="2"/>
+    </row>
+    <row r="738" spans="2:2" ht="13">
+      <c r="B738" s="2"/>
+    </row>
+    <row r="739" spans="2:2" ht="13">
+      <c r="B739" s="2"/>
+    </row>
+    <row r="740" spans="2:2" ht="13">
+      <c r="B740" s="2"/>
+    </row>
+    <row r="741" spans="2:2" ht="13">
+      <c r="B741" s="2"/>
+    </row>
+    <row r="742" spans="2:2" ht="13">
+      <c r="B742" s="2"/>
+    </row>
+    <row r="743" spans="2:2" ht="13">
+      <c r="B743" s="2"/>
+    </row>
+    <row r="744" spans="2:2" ht="13">
+      <c r="B744" s="2"/>
+    </row>
+    <row r="745" spans="2:2" ht="13">
+      <c r="B745" s="2"/>
+    </row>
+    <row r="746" spans="2:2" ht="13">
+      <c r="B746" s="2"/>
+    </row>
+    <row r="747" spans="2:2" ht="13">
+      <c r="B747" s="2"/>
+    </row>
+    <row r="748" spans="2:2" ht="13">
+      <c r="B748" s="2"/>
+    </row>
+    <row r="749" spans="2:2" ht="13">
+      <c r="B749" s="2"/>
+    </row>
+    <row r="750" spans="2:2" ht="13">
+      <c r="B750" s="2"/>
+    </row>
+    <row r="751" spans="2:2" ht="13">
+      <c r="B751" s="2"/>
+    </row>
+    <row r="752" spans="2:2" ht="13">
+      <c r="B752" s="2"/>
+    </row>
+    <row r="753" spans="2:2" ht="13">
+      <c r="B753" s="2"/>
+    </row>
+    <row r="754" spans="2:2" ht="13">
+      <c r="B754" s="2"/>
+    </row>
+    <row r="755" spans="2:2" ht="13">
+      <c r="B755" s="2"/>
+    </row>
+    <row r="756" spans="2:2" ht="13">
+      <c r="B756" s="2"/>
+    </row>
+    <row r="757" spans="2:2" ht="13">
+      <c r="B757" s="2"/>
+    </row>
+    <row r="758" spans="2:2" ht="13">
+      <c r="B758" s="2"/>
+    </row>
+    <row r="759" spans="2:2" ht="13">
+      <c r="B759" s="2"/>
+    </row>
+    <row r="760" spans="2:2" ht="13">
+      <c r="B760" s="2"/>
+    </row>
+    <row r="761" spans="2:2" ht="13">
+      <c r="B761" s="2"/>
+    </row>
+    <row r="762" spans="2:2" ht="13">
+      <c r="B762" s="2"/>
+    </row>
+    <row r="763" spans="2:2" ht="13">
+      <c r="B763" s="2"/>
+    </row>
+    <row r="764" spans="2:2" ht="13">
+      <c r="B764" s="2"/>
+    </row>
+    <row r="765" spans="2:2" ht="13">
+      <c r="B765" s="2"/>
+    </row>
+    <row r="766" spans="2:2" ht="13">
+      <c r="B766" s="2"/>
+    </row>
+    <row r="767" spans="2:2" ht="13">
+      <c r="B767" s="2"/>
+    </row>
+    <row r="768" spans="2:2" ht="13">
+      <c r="B768" s="2"/>
+    </row>
+    <row r="769" spans="2:2" ht="13">
+      <c r="B769" s="2"/>
+    </row>
+    <row r="770" spans="2:2" ht="13">
+      <c r="B770" s="2"/>
+    </row>
+    <row r="771" spans="2:2" ht="13">
+      <c r="B771" s="2"/>
+    </row>
+    <row r="772" spans="2:2" ht="13">
+      <c r="B772" s="2"/>
+    </row>
+    <row r="773" spans="2:2" ht="13">
+      <c r="B773" s="2"/>
+    </row>
+    <row r="774" spans="2:2" ht="13">
+      <c r="B774" s="2"/>
+    </row>
+    <row r="775" spans="2:2" ht="13">
+      <c r="B775" s="2"/>
+    </row>
+    <row r="776" spans="2:2" ht="13">
+      <c r="B776" s="2"/>
+    </row>
+    <row r="777" spans="2:2" ht="13">
+      <c r="B777" s="2"/>
+    </row>
+    <row r="778" spans="2:2" ht="13">
+      <c r="B778" s="2"/>
+    </row>
+    <row r="779" spans="2:2" ht="13">
+      <c r="B779" s="2"/>
+    </row>
+    <row r="780" spans="2:2" ht="13">
+      <c r="B780" s="2"/>
+    </row>
+    <row r="781" spans="2:2" ht="13">
+      <c r="B781" s="2"/>
+    </row>
+    <row r="782" spans="2:2" ht="13">
+      <c r="B782" s="2"/>
+    </row>
+    <row r="783" spans="2:2" ht="13">
+      <c r="B783" s="2"/>
+    </row>
+    <row r="784" spans="2:2" ht="13">
+      <c r="B784" s="2"/>
+    </row>
+    <row r="785" spans="2:2" ht="13">
+      <c r="B785" s="2"/>
+    </row>
+    <row r="786" spans="2:2" ht="13">
+      <c r="B786" s="2"/>
+    </row>
+    <row r="787" spans="2:2" ht="13">
+      <c r="B787" s="2"/>
+    </row>
+    <row r="788" spans="2:2" ht="13">
+      <c r="B788" s="2"/>
+    </row>
+    <row r="789" spans="2:2" ht="13">
+      <c r="B789" s="2"/>
+    </row>
+    <row r="790" spans="2:2" ht="13">
+      <c r="B790" s="2"/>
+    </row>
+    <row r="791" spans="2:2" ht="13">
+      <c r="B791" s="2"/>
+    </row>
+    <row r="792" spans="2:2" ht="13">
+      <c r="B792" s="2"/>
+    </row>
+    <row r="793" spans="2:2" ht="13">
+      <c r="B793" s="2"/>
+    </row>
+    <row r="794" spans="2:2" ht="13">
+      <c r="B794" s="2"/>
+    </row>
+    <row r="795" spans="2:2" ht="13">
+      <c r="B795" s="2"/>
+    </row>
+    <row r="796" spans="2:2" ht="13">
+      <c r="B796" s="2"/>
+    </row>
+    <row r="797" spans="2:2" ht="13">
+      <c r="B797" s="2"/>
+    </row>
+    <row r="798" spans="2:2" ht="13">
+      <c r="B798" s="2"/>
+    </row>
+    <row r="799" spans="2:2" ht="13">
+      <c r="B799" s="2"/>
+    </row>
+    <row r="800" spans="2:2" ht="13">
+      <c r="B800" s="2"/>
+    </row>
+    <row r="801" spans="2:2" ht="13">
+      <c r="B801" s="2"/>
+    </row>
+    <row r="802" spans="2:2" ht="13">
+      <c r="B802" s="2"/>
+    </row>
+    <row r="803" spans="2:2" ht="13">
+      <c r="B803" s="2"/>
+    </row>
+    <row r="804" spans="2:2" ht="13">
+      <c r="B804" s="2"/>
+    </row>
+    <row r="805" spans="2:2" ht="13">
+      <c r="B805" s="2"/>
+    </row>
+    <row r="806" spans="2:2" ht="13">
+      <c r="B806" s="2"/>
+    </row>
+    <row r="807" spans="2:2" ht="13">
+      <c r="B807" s="2"/>
+    </row>
+    <row r="808" spans="2:2" ht="13">
+      <c r="B808" s="2"/>
+    </row>
+    <row r="809" spans="2:2" ht="13">
+      <c r="B809" s="2"/>
+    </row>
+    <row r="810" spans="2:2" ht="13">
+      <c r="B810" s="2"/>
+    </row>
+    <row r="811" spans="2:2" ht="13">
+      <c r="B811" s="2"/>
+    </row>
+    <row r="812" spans="2:2" ht="13">
+      <c r="B812" s="2"/>
+    </row>
+    <row r="813" spans="2:2" ht="13">
+      <c r="B813" s="2"/>
+    </row>
+    <row r="814" spans="2:2" ht="13">
+      <c r="B814" s="2"/>
+    </row>
+    <row r="815" spans="2:2" ht="13">
+      <c r="B815" s="2"/>
+    </row>
+    <row r="816" spans="2:2" ht="13">
+      <c r="B816" s="2"/>
+    </row>
+    <row r="817" spans="2:2" ht="13">
+      <c r="B817" s="2"/>
+    </row>
+    <row r="818" spans="2:2" ht="13">
+      <c r="B818" s="2"/>
+    </row>
+    <row r="819" spans="2:2" ht="13">
+      <c r="B819" s="2"/>
+    </row>
+    <row r="820" spans="2:2" ht="13">
+      <c r="B820" s="2"/>
+    </row>
+    <row r="821" spans="2:2" ht="13">
+      <c r="B821" s="2"/>
+    </row>
+    <row r="822" spans="2:2" ht="13">
+      <c r="B822" s="2"/>
+    </row>
+    <row r="823" spans="2:2" ht="13">
+      <c r="B823" s="2"/>
+    </row>
+    <row r="824" spans="2:2" ht="13">
+      <c r="B824" s="2"/>
+    </row>
+    <row r="825" spans="2:2" ht="13">
+      <c r="B825" s="2"/>
+    </row>
+    <row r="826" spans="2:2" ht="13">
+      <c r="B826" s="2"/>
+    </row>
+    <row r="827" spans="2:2" ht="13">
+      <c r="B827" s="2"/>
+    </row>
+    <row r="828" spans="2:2" ht="13">
+      <c r="B828" s="2"/>
+    </row>
+    <row r="829" spans="2:2" ht="13">
+      <c r="B829" s="2"/>
+    </row>
+    <row r="830" spans="2:2" ht="13">
+      <c r="B830" s="2"/>
+    </row>
+    <row r="831" spans="2:2" ht="13">
+      <c r="B831" s="2"/>
+    </row>
+    <row r="832" spans="2:2" ht="13">
+      <c r="B832" s="2"/>
+    </row>
+    <row r="833" spans="2:2" ht="13">
+      <c r="B833" s="2"/>
+    </row>
+    <row r="834" spans="2:2" ht="13">
+      <c r="B834" s="2"/>
+    </row>
+    <row r="835" spans="2:2" ht="13">
+      <c r="B835" s="2"/>
+    </row>
+    <row r="836" spans="2:2" ht="13">
+      <c r="B836" s="2"/>
+    </row>
+    <row r="837" spans="2:2" ht="13">
+      <c r="B837" s="2"/>
+    </row>
+    <row r="838" spans="2:2" ht="13">
+      <c r="B838" s="2"/>
+    </row>
+    <row r="839" spans="2:2" ht="13">
+      <c r="B839" s="2"/>
+    </row>
+    <row r="840" spans="2:2" ht="13">
+      <c r="B840" s="2"/>
+    </row>
+    <row r="841" spans="2:2" ht="13">
+      <c r="B841" s="2"/>
+    </row>
+    <row r="842" spans="2:2" ht="13">
+      <c r="B842" s="2"/>
+    </row>
+    <row r="843" spans="2:2" ht="13">
+      <c r="B843" s="2"/>
+    </row>
+    <row r="844" spans="2:2" ht="13">
+      <c r="B844" s="2"/>
+    </row>
+    <row r="845" spans="2:2" ht="13">
+      <c r="B845" s="2"/>
+    </row>
+    <row r="846" spans="2:2" ht="13">
+      <c r="B846" s="2"/>
+    </row>
+    <row r="847" spans="2:2" ht="13">
+      <c r="B847" s="2"/>
+    </row>
+    <row r="848" spans="2:2" ht="13">
+      <c r="B848" s="2"/>
+    </row>
+    <row r="849" spans="2:2" ht="13">
+      <c r="B849" s="2"/>
+    </row>
+    <row r="850" spans="2:2" ht="13">
+      <c r="B850" s="2"/>
+    </row>
+    <row r="851" spans="2:2" ht="13">
+      <c r="B851" s="2"/>
+    </row>
+    <row r="852" spans="2:2" ht="13">
+      <c r="B852" s="2"/>
+    </row>
+    <row r="853" spans="2:2" ht="13">
+      <c r="B853" s="2"/>
+    </row>
+    <row r="854" spans="2:2" ht="13">
+      <c r="B854" s="2"/>
+    </row>
+    <row r="855" spans="2:2" ht="13">
+      <c r="B855" s="2"/>
+    </row>
+    <row r="856" spans="2:2" ht="13">
+      <c r="B856" s="2"/>
+    </row>
+    <row r="857" spans="2:2" ht="13">
+      <c r="B857" s="2"/>
+    </row>
+    <row r="858" spans="2:2" ht="13">
+      <c r="B858" s="2"/>
+    </row>
+    <row r="859" spans="2:2" ht="13">
+      <c r="B859" s="2"/>
+    </row>
+    <row r="860" spans="2:2" ht="13">
+      <c r="B860" s="2"/>
+    </row>
+    <row r="861" spans="2:2" ht="13">
+      <c r="B861" s="2"/>
+    </row>
+    <row r="862" spans="2:2" ht="13">
+      <c r="B862" s="2"/>
+    </row>
+    <row r="863" spans="2:2" ht="13">
+      <c r="B863" s="2"/>
+    </row>
+    <row r="864" spans="2:2" ht="13">
+      <c r="B864" s="2"/>
+    </row>
+    <row r="865" spans="2:2" ht="13">
+      <c r="B865" s="2"/>
+    </row>
+    <row r="866" spans="2:2" ht="13">
+      <c r="B866" s="2"/>
+    </row>
+    <row r="867" spans="2:2" ht="13">
+      <c r="B867" s="2"/>
+    </row>
+    <row r="868" spans="2:2" ht="13">
+      <c r="B868" s="2"/>
+    </row>
+    <row r="869" spans="2:2" ht="13">
+      <c r="B869" s="2"/>
+    </row>
+    <row r="870" spans="2:2" ht="13">
+      <c r="B870" s="2"/>
+    </row>
+    <row r="871" spans="2:2" ht="13">
+      <c r="B871" s="2"/>
+    </row>
+    <row r="872" spans="2:2" ht="13">
+      <c r="B872" s="2"/>
+    </row>
+    <row r="873" spans="2:2" ht="13">
+      <c r="B873" s="2"/>
+    </row>
+    <row r="874" spans="2:2" ht="13">
+      <c r="B874" s="2"/>
+    </row>
+    <row r="875" spans="2:2" ht="13">
+      <c r="B875" s="2"/>
+    </row>
+    <row r="876" spans="2:2" ht="13">
+      <c r="B876" s="2"/>
+    </row>
+    <row r="877" spans="2:2" ht="13">
+      <c r="B877" s="2"/>
+    </row>
+    <row r="878" spans="2:2" ht="13">
+      <c r="B878" s="2"/>
+    </row>
+    <row r="879" spans="2:2" ht="13">
+      <c r="B879" s="2"/>
+    </row>
+    <row r="880" spans="2:2" ht="13">
+      <c r="B880" s="2"/>
+    </row>
+    <row r="881" spans="2:2" ht="13">
+      <c r="B881" s="2"/>
+    </row>
+    <row r="882" spans="2:2" ht="13">
+      <c r="B882" s="2"/>
+    </row>
+    <row r="883" spans="2:2" ht="13">
+      <c r="B883" s="2"/>
+    </row>
+    <row r="884" spans="2:2" ht="13">
+      <c r="B884" s="2"/>
+    </row>
+    <row r="885" spans="2:2" ht="13">
+      <c r="B885" s="2"/>
+    </row>
+    <row r="886" spans="2:2" ht="13">
+      <c r="B886" s="2"/>
+    </row>
+    <row r="887" spans="2:2" ht="13">
+      <c r="B887" s="2"/>
+    </row>
+    <row r="888" spans="2:2" ht="13">
+      <c r="B888" s="2"/>
+    </row>
+    <row r="889" spans="2:2" ht="13">
+      <c r="B889" s="2"/>
+    </row>
+    <row r="890" spans="2:2" ht="13">
+      <c r="B890" s="2"/>
+    </row>
+    <row r="891" spans="2:2" ht="13">
+      <c r="B891" s="2"/>
+    </row>
+    <row r="892" spans="2:2" ht="13">
+      <c r="B892" s="2"/>
+    </row>
+    <row r="893" spans="2:2" ht="13">
+      <c r="B893" s="2"/>
+    </row>
+    <row r="894" spans="2:2" ht="13">
+      <c r="B894" s="2"/>
+    </row>
+    <row r="895" spans="2:2" ht="13">
+      <c r="B895" s="2"/>
+    </row>
+    <row r="896" spans="2:2" ht="13">
+      <c r="B896" s="2"/>
+    </row>
+    <row r="897" spans="2:2" ht="13">
+      <c r="B897" s="2"/>
+    </row>
+    <row r="898" spans="2:2" ht="13">
+      <c r="B898" s="2"/>
+    </row>
+    <row r="899" spans="2:2" ht="13">
+      <c r="B899" s="2"/>
+    </row>
+    <row r="900" spans="2:2" ht="13">
+      <c r="B900" s="2"/>
+    </row>
+    <row r="901" spans="2:2" ht="13">
+      <c r="B901" s="2"/>
+    </row>
+    <row r="902" spans="2:2" ht="13">
+      <c r="B902" s="2"/>
+    </row>
+    <row r="903" spans="2:2" ht="13">
+      <c r="B903" s="2"/>
+    </row>
+    <row r="904" spans="2:2" ht="13">
+      <c r="B904" s="2"/>
+    </row>
+    <row r="905" spans="2:2" ht="13">
+      <c r="B905" s="2"/>
+    </row>
+    <row r="906" spans="2:2" ht="13">
+      <c r="B906" s="2"/>
+    </row>
+    <row r="907" spans="2:2" ht="13">
+      <c r="B907" s="2"/>
+    </row>
+    <row r="908" spans="2:2" ht="13">
+      <c r="B908" s="2"/>
+    </row>
+    <row r="909" spans="2:2" ht="13">
+      <c r="B909" s="2"/>
+    </row>
+    <row r="910" spans="2:2" ht="13">
+      <c r="B910" s="2"/>
+    </row>
+    <row r="911" spans="2:2" ht="13">
+      <c r="B911" s="2"/>
+    </row>
+    <row r="912" spans="2:2" ht="13">
+      <c r="B912" s="2"/>
+    </row>
+    <row r="913" spans="2:2" ht="13">
+      <c r="B913" s="2"/>
+    </row>
+    <row r="914" spans="2:2" ht="13">
+      <c r="B914" s="2"/>
+    </row>
+    <row r="915" spans="2:2" ht="13">
+      <c r="B915" s="2"/>
+    </row>
+    <row r="916" spans="2:2" ht="13">
+      <c r="B916" s="2"/>
+    </row>
+    <row r="917" spans="2:2" ht="13">
+      <c r="B917" s="2"/>
+    </row>
+    <row r="918" spans="2:2" ht="13">
+      <c r="B918" s="2"/>
+    </row>
+    <row r="919" spans="2:2" ht="13">
+      <c r="B919" s="2"/>
+    </row>
+    <row r="920" spans="2:2" ht="13">
+      <c r="B920" s="2"/>
+    </row>
+    <row r="921" spans="2:2" ht="13">
+      <c r="B921" s="2"/>
+    </row>
+    <row r="922" spans="2:2" ht="13">
+      <c r="B922" s="2"/>
+    </row>
+    <row r="923" spans="2:2" ht="13">
+      <c r="B923" s="2"/>
+    </row>
+    <row r="924" spans="2:2" ht="13">
+      <c r="B924" s="2"/>
+    </row>
+    <row r="925" spans="2:2" ht="13">
+      <c r="B925" s="2"/>
+    </row>
+    <row r="926" spans="2:2" ht="13">
+      <c r="B926" s="2"/>
+    </row>
+    <row r="927" spans="2:2" ht="13">
+      <c r="B927" s="2"/>
+    </row>
+    <row r="928" spans="2:2" ht="13">
+      <c r="B928" s="2"/>
+    </row>
+    <row r="929" spans="2:2" ht="13">
+      <c r="B929" s="2"/>
+    </row>
+    <row r="930" spans="2:2" ht="13">
+      <c r="B930" s="2"/>
+    </row>
+    <row r="931" spans="2:2" ht="13">
+      <c r="B931" s="2"/>
+    </row>
+    <row r="932" spans="2:2" ht="13">
+      <c r="B932" s="2"/>
+    </row>
+    <row r="933" spans="2:2" ht="13">
+      <c r="B933" s="2"/>
+    </row>
+    <row r="934" spans="2:2" ht="13">
+      <c r="B934" s="2"/>
+    </row>
+    <row r="935" spans="2:2" ht="13">
+      <c r="B935" s="2"/>
+    </row>
+    <row r="936" spans="2:2" ht="13">
+      <c r="B936" s="2"/>
+    </row>
+    <row r="937" spans="2:2" ht="13">
+      <c r="B937" s="2"/>
+    </row>
+    <row r="938" spans="2:2" ht="13">
+      <c r="B938" s="2"/>
+    </row>
+    <row r="939" spans="2:2" ht="13">
+      <c r="B939" s="2"/>
+    </row>
+    <row r="940" spans="2:2" ht="13">
+      <c r="B940" s="2"/>
+    </row>
+    <row r="941" spans="2:2" ht="13">
+      <c r="B941" s="2"/>
+    </row>
+    <row r="942" spans="2:2" ht="13">
+      <c r="B942" s="2"/>
+    </row>
+    <row r="943" spans="2:2" ht="13">
+      <c r="B943" s="2"/>
+    </row>
+    <row r="944" spans="2:2" ht="13">
+      <c r="B944" s="2"/>
+    </row>
+    <row r="945" spans="2:2" ht="13">
+      <c r="B945" s="2"/>
+    </row>
+    <row r="946" spans="2:2" ht="13">
+      <c r="B946" s="2"/>
+    </row>
+    <row r="947" spans="2:2" ht="13">
+      <c r="B947" s="2"/>
+    </row>
+    <row r="948" spans="2:2" ht="13">
+      <c r="B948" s="2"/>
+    </row>
+    <row r="949" spans="2:2" ht="13">
+      <c r="B949" s="2"/>
+    </row>
+    <row r="950" spans="2:2" ht="13">
+      <c r="B950" s="2"/>
+    </row>
+    <row r="951" spans="2:2" ht="13">
+      <c r="B951" s="2"/>
+    </row>
+    <row r="952" spans="2:2" ht="13">
+      <c r="B952" s="2"/>
+    </row>
+    <row r="953" spans="2:2" ht="13">
+      <c r="B953" s="2"/>
+    </row>
+    <row r="954" spans="2:2" ht="13">
+      <c r="B954" s="2"/>
+    </row>
+    <row r="955" spans="2:2" ht="13">
+      <c r="B955" s="2"/>
+    </row>
+    <row r="956" spans="2:2" ht="13">
+      <c r="B956" s="2"/>
+    </row>
+    <row r="957" spans="2:2" ht="13">
+      <c r="B957" s="2"/>
+    </row>
+    <row r="958" spans="2:2" ht="13">
+      <c r="B958" s="2"/>
+    </row>
+    <row r="959" spans="2:2" ht="13">
+      <c r="B959" s="2"/>
+    </row>
+    <row r="960" spans="2:2" ht="13">
+      <c r="B960" s="2"/>
+    </row>
+    <row r="961" spans="2:2" ht="13">
+      <c r="B961" s="2"/>
+    </row>
+    <row r="962" spans="2:2" ht="13">
+      <c r="B962" s="2"/>
+    </row>
+    <row r="963" spans="2:2" ht="13">
+      <c r="B963" s="2"/>
+    </row>
+    <row r="964" spans="2:2" ht="13">
+      <c r="B964" s="2"/>
+    </row>
+    <row r="965" spans="2:2" ht="13">
+      <c r="B965" s="2"/>
+    </row>
+    <row r="966" spans="2:2" ht="13">
+      <c r="B966" s="2"/>
+    </row>
+    <row r="967" spans="2:2" ht="13">
+      <c r="B967" s="2"/>
+    </row>
+    <row r="968" spans="2:2" ht="13">
+      <c r="B968" s="2"/>
+    </row>
+    <row r="969" spans="2:2" ht="13">
+      <c r="B969" s="2"/>
+    </row>
+    <row r="970" spans="2:2" ht="13">
+      <c r="B970" s="2"/>
+    </row>
+    <row r="971" spans="2:2" ht="13">
+      <c r="B971" s="2"/>
+    </row>
+    <row r="972" spans="2:2" ht="13">
+      <c r="B972" s="2"/>
+    </row>
+    <row r="973" spans="2:2" ht="13">
+      <c r="B973" s="2"/>
+    </row>
+    <row r="974" spans="2:2" ht="13">
+      <c r="B974" s="2"/>
+    </row>
+    <row r="975" spans="2:2" ht="13">
+      <c r="B975" s="2"/>
+    </row>
+    <row r="976" spans="2:2" ht="13">
+      <c r="B976" s="2"/>
+    </row>
+    <row r="977" spans="2:2" ht="13">
+      <c r="B977" s="2"/>
+    </row>
+    <row r="978" spans="2:2" ht="13">
+      <c r="B978" s="2"/>
+    </row>
+    <row r="979" spans="2:2" ht="13">
+      <c r="B979" s="2"/>
+    </row>
+    <row r="980" spans="2:2" ht="13">
+      <c r="B980" s="2"/>
+    </row>
+    <row r="981" spans="2:2" ht="13">
+      <c r="B981" s="2"/>
+    </row>
+    <row r="982" spans="2:2" ht="13">
+      <c r="B982" s="2"/>
+    </row>
+    <row r="983" spans="2:2" ht="13">
+      <c r="B983" s="2"/>
+    </row>
+    <row r="984" spans="2:2" ht="13">
+      <c r="B984" s="2"/>
+    </row>
+    <row r="985" spans="2:2" ht="13">
+      <c r="B985" s="2"/>
+    </row>
+    <row r="986" spans="2:2" ht="13">
+      <c r="B986" s="2"/>
+    </row>
+    <row r="987" spans="2:2" ht="13">
+      <c r="B987" s="2"/>
+    </row>
+    <row r="988" spans="2:2" ht="13">
+      <c r="B988" s="2"/>
+    </row>
+    <row r="989" spans="2:2" ht="13">
+      <c r="B989" s="2"/>
+    </row>
+    <row r="990" spans="2:2" ht="13">
+      <c r="B990" s="2"/>
+    </row>
+    <row r="991" spans="2:2" ht="13">
+      <c r="B991" s="2"/>
+    </row>
+    <row r="992" spans="2:2" ht="13">
+      <c r="B992" s="2"/>
+    </row>
+    <row r="993" spans="2:2" ht="13">
+      <c r="B993" s="2"/>
+    </row>
+    <row r="994" spans="2:2" ht="13">
+      <c r="B994" s="2"/>
+    </row>
+    <row r="995" spans="2:2" ht="13">
+      <c r="B995" s="2"/>
+    </row>
+    <row r="996" spans="2:2" ht="13">
+      <c r="B996" s="2"/>
+    </row>
+    <row r="997" spans="2:2" ht="13">
+      <c r="B997" s="2"/>
+    </row>
+    <row r="998" spans="2:2" ht="13">
+      <c r="B998" s="2"/>
+    </row>
+    <row r="999" spans="2:2" ht="13">
+      <c r="B999" s="2"/>
+    </row>
+    <row r="1000" spans="2:2" ht="13">
+      <c r="B1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -717,6 +717,110 @@
 2. /photos
 3. /photos/1
 4. /photos?id=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のマイグレーションを実行した後、usersテーブルにどのような変更が適用されますか？
+```
+class AddEmailToUsers &lt; ActiveRecord::Migration[6.0]
+  def change
+    add_column :users, :email, :string
+  end
+end
+```
+1. usersテーブルが削除される
+2. emailカラムがusersテーブルに追加される
+3. emailテーブルが作成される
+4. 何も変更されない
+</t>
+  </si>
+  <si>
+    <t>アソシエーション</t>
+  </si>
+  <si>
+    <t>以下のコードについて、次のうち正しいのはどれですか？
+```
+class Book &lt; ApplicationRecord
+  belongs_to :author
+end
+class Author &lt; ApplicationRecord
+  has_many :books
+end
+```
+1. 一人の著者は複数の本を持つことができる
+2. 一冊の本は複数の著者を持つことができる
+3. 著者と本の間には関連がない
+4. 本と著者は一対一の関係である</t>
+  </si>
+  <si>
+    <t>バリデーション</t>
+  </si>
+  <si>
+    <t>以下のバリデーションにより、Userモデルにどのような制約が適用されますか？
+```
+class User &lt; ApplicationRecord
+  validates :email, presence: true, uniqueness: true
+end
+```
+1. メールアドレスは一意である必要はないが、存在しなければならない
+2. メールアドレスは一意で、存在する必要がある
+3. メールアドレスは存在する必要はないが、一意である必要がある
+4. メールアドレスに関する制約はない</t>
+  </si>
+  <si>
+    <t>コントローラーアクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のコントローラーアクションの目的は何ですか？
+```
+class UsersController &lt; ApplicationController
+  def show
+    @user = User.find(params[:id])
+  end
+end
+```
+1. すべてのユーザーを表示する
+2. 指定されたIDのユーザーを作成する
+3. 指定されたIDのユーザーを表示する
+4. ユーザーの一覧を取得する
+</t>
+  </si>
+  <si>
+    <t>ビューヘルパー</t>
+  </si>
+  <si>
+    <t>以下のビューヘルパーの機能は何ですか？
+```
+&lt;%= link_to 'Home', root_path %&gt;
+```
+1. ルートパスへのリンクを作成する
+2. ホームディレクトリへのリンクを作成する
+3. テキスト'Home'を表示するだけ
+4. エラーメッセージを表示する</t>
+  </si>
+  <si>
+    <t>Active Record</t>
+  </si>
+  <si>
+    <t>以下のActive Recordクエリの目的は何ですか？
+```
+User.where(first_name: 'Alice').limit(5)
+```
+1. first_nameが'Alice'のユーザーを全員返す
+2. first_nameが'Alice'の最初の5人のユーザーを返す
+3. データベースから5人のユーザーをランダムに選ぶ
+4. first_nameが'Alice'のユーザーを1人だけ返す</t>
+  </si>
+  <si>
+    <t>以下のコードの目的は何ですか？
+```
+class ApplicationController &lt; ActionController::Base
+  protect_from_forgery with: :exception
+end
+```
+1. 全てのリクエストを許可する
+2. Cross-Site Request Forgery攻撃から保護する
+3. 例外を発生させる
+4. ユーザー認証を強制する</t>
   </si>
   <si>
     <t>Linux</t>
@@ -1824,57 +1928,85 @@
       <c r="A61" s="1">
         <v>604.0</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>605.0</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>606.0</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
         <v>607.0</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
         <v>608.0</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
         <v>609.0</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>610.0</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
         <v>700.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>4</v>
@@ -1885,10 +2017,10 @@
         <v>701.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
@@ -1896,10 +2028,10 @@
         <v>702.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
@@ -1907,10 +2039,10 @@
         <v>703.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
@@ -1918,10 +2050,10 @@
         <v>704.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
@@ -1929,10 +2061,10 @@
         <v>705.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
@@ -1940,7 +2072,7 @@
         <v>800.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>4</v>
@@ -1951,10 +2083,10 @@
         <v>801.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
@@ -1962,10 +2094,10 @@
         <v>802.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
@@ -1973,10 +2105,10 @@
         <v>803.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
@@ -1984,10 +2116,10 @@
         <v>804.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
@@ -1995,10 +2127,10 @@
         <v>805.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -823,6 +823,276 @@
 4. ユーザー認証を強制する</t>
   </si>
   <si>
+    <t>JavaScript（知識編）</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptの主な用途は何ですか？
+1. サーバーサイドアプリケーション
+2. モバイルアプリケーション
+3. ウェブページのインタラクティビティと動的機能
+4. 3Dゲーム開発
+</t>
+  </si>
+  <si>
+    <t>ECMAScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMAScriptはJavaScriptに関連するものですが、何を指す名称ですか
+1. JavaScriptのライブラリ
+2. JavaScriptのフレームワーク
+3. JavaScriptの仕様
+4. JavaScriptのコンパイラ
+</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptはどの種類の言語として分類されますか？
+1. コンパイル言語
+2. マークアップ言語
+3. スクリプト言語
+4. アセンブリ言語
+</t>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptに関連する人気のあるフレームワークはどれですか？
+1. Django
+2. Laravel
+3. React
+4. Ruby on Rails
+</t>
+  </si>
+  <si>
+    <t>実行環境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptのコードをサーバーサイドで実行するために使われる環境は何ですか？
+1. Apache
+2. Node.js
+3. IIS
+4. Nginx
+</t>
+  </si>
+  <si>
+    <t>脆弱性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptでよく話題になるセキュリティの脆弱性は何ですか？
+1. SQLインジェクション
+2. クロスサイトリクエストフォージェリ (CSRF)
+3. クロスサイトスクリプティング (XSS)
+4. パスワードクラック
+</t>
+  </si>
+  <si>
+    <t>Javaとの関係</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptとJavaの主な関係は何ですか？
+1. JavaScriptはJavaの簡易版です
+2. 両方が同じ会社によって開発されました
+3. JavaScriptとJavaには直接的な関係はありません
+4. JavaScriptはJavaのスクリプト言語です
+</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>JavaScriptでコメントを書くために使われる記号は何ですか？
+1. // および /* */
+2. # および &lt;!-- --&gt;
+3. -- および /**/
+4. // および &lt;&gt;</t>
+  </si>
+  <si>
+    <t>変数宣言</t>
+  </si>
+  <si>
+    <t>JavaScriptで変数を宣言するために使われるキーワードは何ですか？
+1. var, let, const
+2. int, str, bool
+3. def, new, static
+4. create, set, assign</t>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>JavaScriptで文字列を表すのに使われる記号は何ですか？
+1. 丸括弧 ()
+2. 角括弧 []
+3. 波括弧 {}
+4. 引用符 "" または ''</t>
+  </si>
+  <si>
+    <t>JavaScript（コード編）</t>
+  </si>
+  <si>
+    <t>等価演算子</t>
+  </si>
+  <si>
+    <t>次のJavaScriptコードの実行結果は何ですか？
+```
+let x = 5;
+let y = "5";
+console.log(x == y);
+```
+1. true
+2. false
+3. TypeError
+4. undefined</t>
+  </si>
+  <si>
+    <t>関数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次のJavaScript関数はどのような値を返しますか？
+```
+function checkNum(num) {
+  if (num &gt; 10) {
+    return "Greater than 10";
+  } else {
+    return "Less than or equal to 10";
+  }
+}
+```
+1. 10より大きい数の場合はtrue、それ以外はfalse
+2. 10より大きい数の場合はGreater than 10、それ以外はLess than or equal to 10
+3. 常にUndefined
+4. 数値以外が入力された場合にエラー
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のコードの出力は何ですか？
+```
+let fruits = ["apple", "banana", "cherry"];
+fruits.push("date");
+console.log(fruits[3]);
+```
+1. "banana"
+2. "cherry"
+3. "date"
+4. undefined
+</t>
+  </si>
+  <si>
+    <t>関数とスコープ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このコードの最終的な出力は何ですか？
+```
+var a = 5;
+function test() {
+  var a = 10;
+  console.log(a);
+}
+test();
+console.log(a);
+```
+1. 5 と 5
+2. 10 と 10
+3. 10 と 5
+4. 5 と 10
+</t>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次のコードの実行結果は何ですか？
+```
+let obj = { a: 1, b: 2 };
+console.log(obj.c);
+```
+1. 1
+2. 2
+3. undefined
+4. ReferenceError
+</t>
+  </si>
+  <si>
+    <t>デフォルトパラメータ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の関数の呼び出しでconsole.logに表示されるのは何ですか？
+```
+function sayHello(name = "Guest") {
+  console.log("Hello, " + name);
+}
+sayHello();
+```
+1. Hello, Guest
+2. Hello, undefined
+3. Hello,
+4. Hello, null
+</t>
+  </si>
+  <si>
+    <t>配列メソッド</t>
+  </si>
+  <si>
+    <t>次のコードの結果は何ですか？
+```
+let numbers = [1, 2, 3, 4];
+let result = numbers.filter(n =&gt; n % 2 === 0);
+console.log(result);
+```
+1. [1, 3]
+2. [2, 4]
+3. [1, 2, 3, 4]
+4. []</t>
+  </si>
+  <si>
+    <t>文字列操作</t>
+  </si>
+  <si>
+    <t>次のコードの出力は何ですか？
+```
+console.log("Hello World".toUpperCase());
+```
+1. "hello world"
+2. "Hello World"
+3. "HELLO WORLD"
+4. TypeError</t>
+  </si>
+  <si>
+    <t>変数の型</t>
+  </si>
+  <si>
+    <t>次のコードの実行結果は何ですか？
+```
+let x = "5";
+console.log(typeof x);
+```
+1. "number"
+2. "string"
+3. "object"
+4. "boolean"</t>
+  </si>
+  <si>
+    <t>ループ</t>
+  </si>
+  <si>
+    <t>次のコードの出力は何ですか？
+```
+for (let i = 0; i &lt; 3; i++) {
+  console.log(i);
+}
+```
+1. 0 1 2
+2. 1 2 3
+3. 0 1 2 3
+4. undefined</t>
+  </si>
+  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -868,6 +1138,56 @@
 4. erase</t>
   </si>
   <si>
+    <t>コア機能</t>
+  </si>
+  <si>
+    <t>Linuxのコア機能を担うプログラムは何と呼ばれていますか？
+1. カーネル
+2. ブートローダー
+3. シェル
+4. ファイアウォール</t>
+  </si>
+  <si>
+    <t>開発者</t>
+  </si>
+  <si>
+    <t>Linuxを開発したのは誰ですか？
+1, ビル・ゲイツ
+2. スティーブ・ジョブズ
+3. リーナス・トーバルズ
+4. マーク・ザッカーバーグ</t>
+  </si>
+  <si>
+    <t>特徴</t>
+  </si>
+  <si>
+    <t>Linuxオペレーティングシステムの特徴として正しくないものはどれですか？
+1. 多様なカスタマイズが可能
+2. 主に個人用途に限定される
+3. ソースコードが公開されている
+4. 様々なディストリビューションが存在する</t>
+  </si>
+  <si>
+    <t>プロセス</t>
+  </si>
+  <si>
+    <t>Linuxでプロセス一覧を表示するコマンドはどれですか？
+1. list
+2. ps
+3. proc
+4. showproc</t>
+  </si>
+  <si>
+    <t>パーミッション</t>
+  </si>
+  <si>
+    <t>Linuxでファイルやディレクトリのパーミッションを変更するコマンドはどれですか？
+1. chmod
+2. chown
+3. chgrp
+4. modperm</t>
+  </si>
+  <si>
     <t>ネットワーク</t>
   </si>
   <si>
@@ -920,12 +1240,62 @@
 3. ユーザーのブラウザを利用して、そのユーザーの知らないうちに悪意のある操作を実行する攻撃
 4. ユーザーのデバイスにマルウェアをインストールする攻撃</t>
   </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>TCP/IPモデルにおける「IP」は何を意味しますか？
+1. Internet Protocol
+2. Internal Processing
+3. Interconnected Protocol
+4. Integrated Performance</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DNSの役割は何ですか？
+1. データの暗号化と復号化
+2. ドメイン名をIPアドレスに変換
+3. データ転送速度の管理
+4. ネットワークのセキュリティ確保</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>IPv6アドレスの主な利点は何ですか？
+1. 高速なデータ転送
+2. より多くのIPアドレスの利用可能性
+3. より良いグラフィックス
+4. 自動エラー修正</t>
+  </si>
+  <si>
+    <t>フィッシング攻撃</t>
+  </si>
+  <si>
+    <t>フィッシング攻撃の目的は何ですか？
+1. ウイルスの拡散
+2. ユーザーの個人情報の窃取
+3. ウェブサイトの改ざん
+4. ネットワークの遅延</t>
+  </si>
+  <si>
+    <t>ファイアウォール</t>
+  </si>
+  <si>
+    <t>ファイアウォールは一般に何を目的としていますか？
+1. インターネット速度の向上
+2. ゲームのパフォーマンスの向上
+3. ネットワークへの不正アクセスの防止
+4. 電子メールの自動整理</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -972,6 +1342,10 @@
       <color rgb="FF374151"/>
       <name val="Söhne"/>
     </font>
+    <font>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1012,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1041,6 +1415,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2008,7 +2385,7 @@
       <c r="B68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2016,11 +2393,11 @@
       <c r="A69" s="1">
         <v>701.0</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70">
@@ -2028,10 +2405,10 @@
         <v>702.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="5" t="s">
         <v>109</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="71">
@@ -2039,10 +2416,10 @@
         <v>703.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="5" t="s">
         <v>111</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="72">
@@ -2050,10 +2427,10 @@
         <v>704.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="73">
@@ -2061,2987 +2438,3313 @@
         <v>705.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>800.0</v>
+        <v>706.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>4</v>
+        <v>117</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>801.0</v>
+        <v>707.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>802.0</v>
+        <v>708.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>803.0</v>
+        <v>709.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>804.0</v>
+        <v>710.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>802.0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>803.0</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>804.0</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
         <v>805.0</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="10"/>
+      <c r="B84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="85">
-      <c r="B85" s="10"/>
+      <c r="A85" s="1">
+        <v>806.0</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="86">
-      <c r="B86" s="10"/>
+      <c r="A86" s="1">
+        <v>807.0</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="87">
-      <c r="B87" s="10"/>
+      <c r="A87" s="1">
+        <v>808.0</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="88">
-      <c r="B88" s="10"/>
+      <c r="A88" s="1">
+        <v>809.0</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="89">
-      <c r="B89" s="10"/>
+      <c r="A89" s="1">
+        <v>810.0</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="90">
-      <c r="B90" s="10"/>
+      <c r="A90" s="1">
+        <v>900.0</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
-      <c r="B91" s="10"/>
+      <c r="A91" s="1">
+        <v>901.0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="92">
-      <c r="B92" s="10"/>
+      <c r="A92" s="1">
+        <v>902.0</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="93">
-      <c r="B93" s="10"/>
+      <c r="A93" s="1">
+        <v>903.0</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="94">
-      <c r="B94" s="10"/>
+      <c r="A94" s="1">
+        <v>904.0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="95">
-      <c r="B95" s="10"/>
+      <c r="A95" s="1">
+        <v>905.0</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="96">
-      <c r="B96" s="10"/>
+      <c r="A96" s="1">
+        <v>906.0</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="97">
-      <c r="B97" s="10"/>
+      <c r="A97" s="1">
+        <v>907.0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="98">
-      <c r="B98" s="10"/>
+      <c r="A98" s="1">
+        <v>908.0</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="99">
-      <c r="B99" s="10"/>
+      <c r="A99" s="1">
+        <v>909.0</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="100">
-      <c r="B100" s="10"/>
+      <c r="A100" s="1">
+        <v>910.0</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="101">
-      <c r="B101" s="10"/>
+      <c r="A101" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" s="10"/>
+      <c r="A102" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="103">
-      <c r="B103" s="10"/>
+      <c r="A103" s="1">
+        <v>1002.0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="104">
-      <c r="B104" s="10"/>
+      <c r="A104" s="1">
+        <v>1003.0</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="105">
-      <c r="B105" s="10"/>
+      <c r="A105" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="106">
-      <c r="B106" s="10"/>
+      <c r="A106" s="1">
+        <v>1005.0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="107">
-      <c r="B107" s="10"/>
+      <c r="A107" s="1">
+        <v>1006.0</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="108">
-      <c r="B108" s="10"/>
+      <c r="A108" s="1">
+        <v>1007.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="109">
-      <c r="B109" s="10"/>
+      <c r="A109" s="1">
+        <v>1008.0</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="110">
-      <c r="B110" s="10"/>
+      <c r="A110" s="1">
+        <v>1009.0</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="111">
-      <c r="B111" s="10"/>
+      <c r="A111" s="1">
+        <v>1010.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="112">
-      <c r="B112" s="10"/>
+      <c r="B112" s="11"/>
     </row>
     <row r="113">
-      <c r="B113" s="10"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114">
-      <c r="B114" s="10"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="115">
-      <c r="B115" s="10"/>
+      <c r="B115" s="11"/>
     </row>
     <row r="116">
-      <c r="B116" s="10"/>
+      <c r="B116" s="11"/>
     </row>
     <row r="117">
-      <c r="B117" s="10"/>
+      <c r="B117" s="11"/>
     </row>
     <row r="118">
-      <c r="B118" s="10"/>
+      <c r="B118" s="11"/>
     </row>
     <row r="119">
-      <c r="B119" s="10"/>
+      <c r="B119" s="11"/>
     </row>
     <row r="120">
-      <c r="B120" s="10"/>
+      <c r="B120" s="11"/>
     </row>
     <row r="121">
-      <c r="B121" s="10"/>
+      <c r="B121" s="11"/>
     </row>
     <row r="122">
-      <c r="B122" s="10"/>
+      <c r="B122" s="11"/>
     </row>
     <row r="123">
-      <c r="B123" s="10"/>
+      <c r="B123" s="11"/>
     </row>
     <row r="124">
-      <c r="B124" s="10"/>
+      <c r="B124" s="11"/>
     </row>
     <row r="125">
-      <c r="B125" s="10"/>
+      <c r="B125" s="11"/>
     </row>
     <row r="126">
-      <c r="B126" s="10"/>
+      <c r="B126" s="11"/>
     </row>
     <row r="127">
-      <c r="B127" s="10"/>
+      <c r="B127" s="11"/>
     </row>
     <row r="128">
-      <c r="B128" s="10"/>
+      <c r="B128" s="11"/>
     </row>
     <row r="129">
-      <c r="B129" s="10"/>
+      <c r="B129" s="11"/>
     </row>
     <row r="130">
-      <c r="B130" s="10"/>
+      <c r="B130" s="11"/>
     </row>
     <row r="131">
-      <c r="B131" s="10"/>
+      <c r="B131" s="11"/>
     </row>
     <row r="132">
-      <c r="B132" s="10"/>
+      <c r="B132" s="11"/>
     </row>
     <row r="133">
-      <c r="B133" s="10"/>
+      <c r="B133" s="11"/>
     </row>
     <row r="134">
-      <c r="B134" s="10"/>
+      <c r="B134" s="11"/>
     </row>
     <row r="135">
-      <c r="B135" s="10"/>
+      <c r="B135" s="11"/>
     </row>
     <row r="136">
-      <c r="B136" s="10"/>
+      <c r="B136" s="11"/>
     </row>
     <row r="137">
-      <c r="B137" s="10"/>
+      <c r="B137" s="11"/>
     </row>
     <row r="138">
-      <c r="B138" s="10"/>
+      <c r="B138" s="11"/>
     </row>
     <row r="139">
-      <c r="B139" s="10"/>
+      <c r="B139" s="11"/>
     </row>
     <row r="140">
-      <c r="B140" s="10"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141">
-      <c r="B141" s="10"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142">
-      <c r="B142" s="10"/>
+      <c r="B142" s="11"/>
     </row>
     <row r="143">
-      <c r="B143" s="10"/>
+      <c r="B143" s="11"/>
     </row>
     <row r="144">
-      <c r="B144" s="10"/>
+      <c r="B144" s="11"/>
     </row>
     <row r="145">
-      <c r="B145" s="10"/>
+      <c r="B145" s="11"/>
     </row>
     <row r="146">
-      <c r="B146" s="10"/>
+      <c r="B146" s="11"/>
     </row>
     <row r="147">
-      <c r="B147" s="10"/>
+      <c r="B147" s="11"/>
     </row>
     <row r="148">
-      <c r="B148" s="10"/>
+      <c r="B148" s="11"/>
     </row>
     <row r="149">
-      <c r="B149" s="10"/>
+      <c r="B149" s="11"/>
     </row>
     <row r="150">
-      <c r="B150" s="10"/>
+      <c r="B150" s="11"/>
     </row>
     <row r="151">
-      <c r="B151" s="10"/>
+      <c r="B151" s="11"/>
     </row>
     <row r="152">
-      <c r="B152" s="10"/>
+      <c r="B152" s="11"/>
     </row>
     <row r="153">
-      <c r="B153" s="10"/>
+      <c r="B153" s="11"/>
     </row>
     <row r="154">
-      <c r="B154" s="10"/>
+      <c r="B154" s="11"/>
     </row>
     <row r="155">
-      <c r="B155" s="10"/>
+      <c r="B155" s="11"/>
     </row>
     <row r="156">
-      <c r="B156" s="10"/>
+      <c r="B156" s="11"/>
     </row>
     <row r="157">
-      <c r="B157" s="10"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158">
-      <c r="B158" s="10"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159">
-      <c r="B159" s="10"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160">
-      <c r="B160" s="10"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161">
-      <c r="B161" s="10"/>
+      <c r="B161" s="11"/>
     </row>
     <row r="162">
-      <c r="B162" s="10"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163">
-      <c r="B163" s="10"/>
+      <c r="B163" s="11"/>
     </row>
     <row r="164">
-      <c r="B164" s="10"/>
+      <c r="B164" s="11"/>
     </row>
     <row r="165">
-      <c r="B165" s="10"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166">
-      <c r="B166" s="10"/>
+      <c r="B166" s="11"/>
     </row>
     <row r="167">
-      <c r="B167" s="10"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168">
-      <c r="B168" s="10"/>
+      <c r="B168" s="11"/>
     </row>
     <row r="169">
-      <c r="B169" s="10"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170">
-      <c r="B170" s="10"/>
+      <c r="B170" s="11"/>
     </row>
     <row r="171">
-      <c r="B171" s="10"/>
+      <c r="B171" s="11"/>
     </row>
     <row r="172">
-      <c r="B172" s="10"/>
+      <c r="B172" s="11"/>
     </row>
     <row r="173">
-      <c r="B173" s="10"/>
+      <c r="B173" s="11"/>
     </row>
     <row r="174">
-      <c r="B174" s="10"/>
+      <c r="B174" s="11"/>
     </row>
     <row r="175">
-      <c r="B175" s="10"/>
+      <c r="B175" s="11"/>
     </row>
     <row r="176">
-      <c r="B176" s="10"/>
+      <c r="B176" s="11"/>
     </row>
     <row r="177">
-      <c r="B177" s="10"/>
+      <c r="B177" s="11"/>
     </row>
     <row r="178">
-      <c r="B178" s="10"/>
+      <c r="B178" s="11"/>
     </row>
     <row r="179">
-      <c r="B179" s="10"/>
+      <c r="B179" s="11"/>
     </row>
     <row r="180">
-      <c r="B180" s="10"/>
+      <c r="B180" s="11"/>
     </row>
     <row r="181">
-      <c r="B181" s="10"/>
+      <c r="B181" s="11"/>
     </row>
     <row r="182">
-      <c r="B182" s="10"/>
+      <c r="B182" s="11"/>
     </row>
     <row r="183">
-      <c r="B183" s="10"/>
+      <c r="B183" s="11"/>
     </row>
     <row r="184">
-      <c r="B184" s="10"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185">
-      <c r="B185" s="10"/>
+      <c r="B185" s="11"/>
     </row>
     <row r="186">
-      <c r="B186" s="10"/>
+      <c r="B186" s="11"/>
     </row>
     <row r="187">
-      <c r="B187" s="10"/>
+      <c r="B187" s="11"/>
     </row>
     <row r="188">
-      <c r="B188" s="10"/>
+      <c r="B188" s="11"/>
     </row>
     <row r="189">
-      <c r="B189" s="10"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190">
-      <c r="B190" s="10"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191">
-      <c r="B191" s="10"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192">
-      <c r="B192" s="10"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193">
-      <c r="B193" s="10"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194">
-      <c r="B194" s="10"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195">
-      <c r="B195" s="10"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196">
-      <c r="B196" s="10"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197">
-      <c r="B197" s="10"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198">
-      <c r="B198" s="10"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199">
-      <c r="B199" s="10"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200">
-      <c r="B200" s="10"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201">
-      <c r="B201" s="10"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202">
-      <c r="B202" s="10"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203">
-      <c r="B203" s="10"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204">
-      <c r="B204" s="10"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205">
-      <c r="B205" s="10"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206">
-      <c r="B206" s="10"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207">
-      <c r="B207" s="10"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208">
-      <c r="B208" s="10"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209">
-      <c r="B209" s="10"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210">
-      <c r="B210" s="10"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211">
-      <c r="B211" s="10"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212">
-      <c r="B212" s="10"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213">
-      <c r="B213" s="10"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214">
-      <c r="B214" s="10"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215">
-      <c r="B215" s="10"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216">
-      <c r="B216" s="10"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217">
-      <c r="B217" s="10"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218">
-      <c r="B218" s="10"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219">
-      <c r="B219" s="10"/>
+      <c r="B219" s="11"/>
     </row>
     <row r="220">
-      <c r="B220" s="10"/>
+      <c r="B220" s="11"/>
     </row>
     <row r="221">
-      <c r="B221" s="10"/>
+      <c r="B221" s="11"/>
     </row>
     <row r="222">
-      <c r="B222" s="10"/>
+      <c r="B222" s="11"/>
     </row>
     <row r="223">
-      <c r="B223" s="10"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224">
-      <c r="B224" s="10"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225">
-      <c r="B225" s="10"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226">
-      <c r="B226" s="10"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227">
-      <c r="B227" s="10"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228">
-      <c r="B228" s="10"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229">
-      <c r="B229" s="10"/>
+      <c r="B229" s="11"/>
     </row>
     <row r="230">
-      <c r="B230" s="10"/>
+      <c r="B230" s="11"/>
     </row>
     <row r="231">
-      <c r="B231" s="10"/>
+      <c r="B231" s="11"/>
     </row>
     <row r="232">
-      <c r="B232" s="10"/>
+      <c r="B232" s="11"/>
     </row>
     <row r="233">
-      <c r="B233" s="10"/>
+      <c r="B233" s="11"/>
     </row>
     <row r="234">
-      <c r="B234" s="10"/>
+      <c r="B234" s="11"/>
     </row>
     <row r="235">
-      <c r="B235" s="10"/>
+      <c r="B235" s="11"/>
     </row>
     <row r="236">
-      <c r="B236" s="10"/>
+      <c r="B236" s="11"/>
     </row>
     <row r="237">
-      <c r="B237" s="10"/>
+      <c r="B237" s="11"/>
     </row>
     <row r="238">
-      <c r="B238" s="10"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239">
-      <c r="B239" s="10"/>
+      <c r="B239" s="11"/>
     </row>
     <row r="240">
-      <c r="B240" s="10"/>
+      <c r="B240" s="11"/>
     </row>
     <row r="241">
-      <c r="B241" s="10"/>
+      <c r="B241" s="11"/>
     </row>
     <row r="242">
-      <c r="B242" s="10"/>
+      <c r="B242" s="11"/>
     </row>
     <row r="243">
-      <c r="B243" s="10"/>
+      <c r="B243" s="11"/>
     </row>
     <row r="244">
-      <c r="B244" s="10"/>
+      <c r="B244" s="11"/>
     </row>
     <row r="245">
-      <c r="B245" s="10"/>
+      <c r="B245" s="11"/>
     </row>
     <row r="246">
-      <c r="B246" s="10"/>
+      <c r="B246" s="11"/>
     </row>
     <row r="247">
-      <c r="B247" s="10"/>
+      <c r="B247" s="11"/>
     </row>
     <row r="248">
-      <c r="B248" s="10"/>
+      <c r="B248" s="11"/>
     </row>
     <row r="249">
-      <c r="B249" s="10"/>
+      <c r="B249" s="11"/>
     </row>
     <row r="250">
-      <c r="B250" s="10"/>
+      <c r="B250" s="11"/>
     </row>
     <row r="251">
-      <c r="B251" s="10"/>
+      <c r="B251" s="11"/>
     </row>
     <row r="252">
-      <c r="B252" s="10"/>
+      <c r="B252" s="11"/>
     </row>
     <row r="253">
-      <c r="B253" s="10"/>
+      <c r="B253" s="11"/>
     </row>
     <row r="254">
-      <c r="B254" s="10"/>
+      <c r="B254" s="11"/>
     </row>
     <row r="255">
-      <c r="B255" s="10"/>
+      <c r="B255" s="11"/>
     </row>
     <row r="256">
-      <c r="B256" s="10"/>
+      <c r="B256" s="11"/>
     </row>
     <row r="257">
-      <c r="B257" s="10"/>
+      <c r="B257" s="11"/>
     </row>
     <row r="258">
-      <c r="B258" s="10"/>
+      <c r="B258" s="11"/>
     </row>
     <row r="259">
-      <c r="B259" s="10"/>
+      <c r="B259" s="11"/>
     </row>
     <row r="260">
-      <c r="B260" s="10"/>
+      <c r="B260" s="11"/>
     </row>
     <row r="261">
-      <c r="B261" s="10"/>
+      <c r="B261" s="11"/>
     </row>
     <row r="262">
-      <c r="B262" s="10"/>
+      <c r="B262" s="11"/>
     </row>
     <row r="263">
-      <c r="B263" s="10"/>
+      <c r="B263" s="11"/>
     </row>
     <row r="264">
-      <c r="B264" s="10"/>
+      <c r="B264" s="11"/>
     </row>
     <row r="265">
-      <c r="B265" s="10"/>
+      <c r="B265" s="11"/>
     </row>
     <row r="266">
-      <c r="B266" s="10"/>
+      <c r="B266" s="11"/>
     </row>
     <row r="267">
-      <c r="B267" s="10"/>
+      <c r="B267" s="11"/>
     </row>
     <row r="268">
-      <c r="B268" s="10"/>
+      <c r="B268" s="11"/>
     </row>
     <row r="269">
-      <c r="B269" s="10"/>
+      <c r="B269" s="11"/>
     </row>
     <row r="270">
-      <c r="B270" s="10"/>
+      <c r="B270" s="11"/>
     </row>
     <row r="271">
-      <c r="B271" s="10"/>
+      <c r="B271" s="11"/>
     </row>
     <row r="272">
-      <c r="B272" s="10"/>
+      <c r="B272" s="11"/>
     </row>
     <row r="273">
-      <c r="B273" s="10"/>
+      <c r="B273" s="11"/>
     </row>
     <row r="274">
-      <c r="B274" s="10"/>
+      <c r="B274" s="11"/>
     </row>
     <row r="275">
-      <c r="B275" s="10"/>
+      <c r="B275" s="11"/>
     </row>
     <row r="276">
-      <c r="B276" s="10"/>
+      <c r="B276" s="11"/>
     </row>
     <row r="277">
-      <c r="B277" s="10"/>
+      <c r="B277" s="11"/>
     </row>
     <row r="278">
-      <c r="B278" s="10"/>
+      <c r="B278" s="11"/>
     </row>
     <row r="279">
-      <c r="B279" s="10"/>
+      <c r="B279" s="11"/>
     </row>
     <row r="280">
-      <c r="B280" s="10"/>
+      <c r="B280" s="11"/>
     </row>
     <row r="281">
-      <c r="B281" s="10"/>
+      <c r="B281" s="11"/>
     </row>
     <row r="282">
-      <c r="B282" s="10"/>
+      <c r="B282" s="11"/>
     </row>
     <row r="283">
-      <c r="B283" s="10"/>
+      <c r="B283" s="11"/>
     </row>
     <row r="284">
-      <c r="B284" s="10"/>
+      <c r="B284" s="11"/>
     </row>
     <row r="285">
-      <c r="B285" s="10"/>
+      <c r="B285" s="11"/>
     </row>
     <row r="286">
-      <c r="B286" s="10"/>
+      <c r="B286" s="11"/>
     </row>
     <row r="287">
-      <c r="B287" s="10"/>
+      <c r="B287" s="11"/>
     </row>
     <row r="288">
-      <c r="B288" s="10"/>
+      <c r="B288" s="11"/>
     </row>
     <row r="289">
-      <c r="B289" s="10"/>
+      <c r="B289" s="11"/>
     </row>
     <row r="290">
-      <c r="B290" s="10"/>
+      <c r="B290" s="11"/>
     </row>
     <row r="291">
-      <c r="B291" s="10"/>
+      <c r="B291" s="11"/>
     </row>
     <row r="292">
-      <c r="B292" s="10"/>
+      <c r="B292" s="11"/>
     </row>
     <row r="293">
-      <c r="B293" s="10"/>
+      <c r="B293" s="11"/>
     </row>
     <row r="294">
-      <c r="B294" s="10"/>
+      <c r="B294" s="11"/>
     </row>
     <row r="295">
-      <c r="B295" s="10"/>
+      <c r="B295" s="11"/>
     </row>
     <row r="296">
-      <c r="B296" s="10"/>
+      <c r="B296" s="11"/>
     </row>
     <row r="297">
-      <c r="B297" s="10"/>
+      <c r="B297" s="11"/>
     </row>
     <row r="298">
-      <c r="B298" s="10"/>
+      <c r="B298" s="11"/>
     </row>
     <row r="299">
-      <c r="B299" s="10"/>
+      <c r="B299" s="11"/>
     </row>
     <row r="300">
-      <c r="B300" s="10"/>
+      <c r="B300" s="11"/>
     </row>
     <row r="301">
-      <c r="B301" s="10"/>
+      <c r="B301" s="11"/>
     </row>
     <row r="302">
-      <c r="B302" s="10"/>
+      <c r="B302" s="11"/>
     </row>
     <row r="303">
-      <c r="B303" s="10"/>
+      <c r="B303" s="11"/>
     </row>
     <row r="304">
-      <c r="B304" s="10"/>
+      <c r="B304" s="11"/>
     </row>
     <row r="305">
-      <c r="B305" s="10"/>
+      <c r="B305" s="11"/>
     </row>
     <row r="306">
-      <c r="B306" s="10"/>
+      <c r="B306" s="11"/>
     </row>
     <row r="307">
-      <c r="B307" s="10"/>
+      <c r="B307" s="11"/>
     </row>
     <row r="308">
-      <c r="B308" s="10"/>
+      <c r="B308" s="11"/>
     </row>
     <row r="309">
-      <c r="B309" s="10"/>
+      <c r="B309" s="11"/>
     </row>
     <row r="310">
-      <c r="B310" s="10"/>
+      <c r="B310" s="11"/>
     </row>
     <row r="311">
-      <c r="B311" s="10"/>
+      <c r="B311" s="11"/>
     </row>
     <row r="312">
-      <c r="B312" s="10"/>
+      <c r="B312" s="11"/>
     </row>
     <row r="313">
-      <c r="B313" s="10"/>
+      <c r="B313" s="11"/>
     </row>
     <row r="314">
-      <c r="B314" s="10"/>
+      <c r="B314" s="11"/>
     </row>
     <row r="315">
-      <c r="B315" s="10"/>
+      <c r="B315" s="11"/>
     </row>
     <row r="316">
-      <c r="B316" s="10"/>
+      <c r="B316" s="11"/>
     </row>
     <row r="317">
-      <c r="B317" s="10"/>
+      <c r="B317" s="11"/>
     </row>
     <row r="318">
-      <c r="B318" s="10"/>
+      <c r="B318" s="11"/>
     </row>
     <row r="319">
-      <c r="B319" s="10"/>
+      <c r="B319" s="11"/>
     </row>
     <row r="320">
-      <c r="B320" s="10"/>
+      <c r="B320" s="11"/>
     </row>
     <row r="321">
-      <c r="B321" s="10"/>
+      <c r="B321" s="11"/>
     </row>
     <row r="322">
-      <c r="B322" s="10"/>
+      <c r="B322" s="11"/>
     </row>
     <row r="323">
-      <c r="B323" s="10"/>
+      <c r="B323" s="11"/>
     </row>
     <row r="324">
-      <c r="B324" s="10"/>
+      <c r="B324" s="11"/>
     </row>
     <row r="325">
-      <c r="B325" s="10"/>
+      <c r="B325" s="11"/>
     </row>
     <row r="326">
-      <c r="B326" s="10"/>
+      <c r="B326" s="11"/>
     </row>
     <row r="327">
-      <c r="B327" s="10"/>
+      <c r="B327" s="11"/>
     </row>
     <row r="328">
-      <c r="B328" s="10"/>
+      <c r="B328" s="11"/>
     </row>
     <row r="329">
-      <c r="B329" s="10"/>
+      <c r="B329" s="11"/>
     </row>
     <row r="330">
-      <c r="B330" s="10"/>
+      <c r="B330" s="11"/>
     </row>
     <row r="331">
-      <c r="B331" s="10"/>
+      <c r="B331" s="11"/>
     </row>
     <row r="332">
-      <c r="B332" s="10"/>
+      <c r="B332" s="11"/>
     </row>
     <row r="333">
-      <c r="B333" s="10"/>
+      <c r="B333" s="11"/>
     </row>
     <row r="334">
-      <c r="B334" s="10"/>
+      <c r="B334" s="11"/>
     </row>
     <row r="335">
-      <c r="B335" s="10"/>
+      <c r="B335" s="11"/>
     </row>
     <row r="336">
-      <c r="B336" s="10"/>
+      <c r="B336" s="11"/>
     </row>
     <row r="337">
-      <c r="B337" s="10"/>
+      <c r="B337" s="11"/>
     </row>
     <row r="338">
-      <c r="B338" s="10"/>
+      <c r="B338" s="11"/>
     </row>
     <row r="339">
-      <c r="B339" s="10"/>
+      <c r="B339" s="11"/>
     </row>
     <row r="340">
-      <c r="B340" s="10"/>
+      <c r="B340" s="11"/>
     </row>
     <row r="341">
-      <c r="B341" s="10"/>
+      <c r="B341" s="11"/>
     </row>
     <row r="342">
-      <c r="B342" s="10"/>
+      <c r="B342" s="11"/>
     </row>
     <row r="343">
-      <c r="B343" s="10"/>
+      <c r="B343" s="11"/>
     </row>
     <row r="344">
-      <c r="B344" s="10"/>
+      <c r="B344" s="11"/>
     </row>
     <row r="345">
-      <c r="B345" s="10"/>
+      <c r="B345" s="11"/>
     </row>
     <row r="346">
-      <c r="B346" s="10"/>
+      <c r="B346" s="11"/>
     </row>
     <row r="347">
-      <c r="B347" s="10"/>
+      <c r="B347" s="11"/>
     </row>
     <row r="348">
-      <c r="B348" s="10"/>
+      <c r="B348" s="11"/>
     </row>
     <row r="349">
-      <c r="B349" s="10"/>
+      <c r="B349" s="11"/>
     </row>
     <row r="350">
-      <c r="B350" s="10"/>
+      <c r="B350" s="11"/>
     </row>
     <row r="351">
-      <c r="B351" s="10"/>
+      <c r="B351" s="11"/>
     </row>
     <row r="352">
-      <c r="B352" s="10"/>
+      <c r="B352" s="11"/>
     </row>
     <row r="353">
-      <c r="B353" s="10"/>
+      <c r="B353" s="11"/>
     </row>
     <row r="354">
-      <c r="B354" s="10"/>
+      <c r="B354" s="11"/>
     </row>
     <row r="355">
-      <c r="B355" s="10"/>
+      <c r="B355" s="11"/>
     </row>
     <row r="356">
-      <c r="B356" s="10"/>
+      <c r="B356" s="11"/>
     </row>
     <row r="357">
-      <c r="B357" s="10"/>
+      <c r="B357" s="11"/>
     </row>
     <row r="358">
-      <c r="B358" s="10"/>
+      <c r="B358" s="11"/>
     </row>
     <row r="359">
-      <c r="B359" s="10"/>
+      <c r="B359" s="11"/>
     </row>
     <row r="360">
-      <c r="B360" s="10"/>
+      <c r="B360" s="11"/>
     </row>
     <row r="361">
-      <c r="B361" s="10"/>
+      <c r="B361" s="11"/>
     </row>
     <row r="362">
-      <c r="B362" s="10"/>
+      <c r="B362" s="11"/>
     </row>
     <row r="363">
-      <c r="B363" s="10"/>
+      <c r="B363" s="11"/>
     </row>
     <row r="364">
-      <c r="B364" s="10"/>
+      <c r="B364" s="11"/>
     </row>
     <row r="365">
-      <c r="B365" s="10"/>
+      <c r="B365" s="11"/>
     </row>
     <row r="366">
-      <c r="B366" s="10"/>
+      <c r="B366" s="11"/>
     </row>
     <row r="367">
-      <c r="B367" s="10"/>
+      <c r="B367" s="11"/>
     </row>
     <row r="368">
-      <c r="B368" s="10"/>
+      <c r="B368" s="11"/>
     </row>
     <row r="369">
-      <c r="B369" s="10"/>
+      <c r="B369" s="11"/>
     </row>
     <row r="370">
-      <c r="B370" s="10"/>
+      <c r="B370" s="11"/>
     </row>
     <row r="371">
-      <c r="B371" s="10"/>
+      <c r="B371" s="11"/>
     </row>
     <row r="372">
-      <c r="B372" s="10"/>
+      <c r="B372" s="11"/>
     </row>
     <row r="373">
-      <c r="B373" s="10"/>
+      <c r="B373" s="11"/>
     </row>
     <row r="374">
-      <c r="B374" s="10"/>
+      <c r="B374" s="11"/>
     </row>
     <row r="375">
-      <c r="B375" s="10"/>
+      <c r="B375" s="11"/>
     </row>
     <row r="376">
-      <c r="B376" s="10"/>
+      <c r="B376" s="11"/>
     </row>
     <row r="377">
-      <c r="B377" s="10"/>
+      <c r="B377" s="11"/>
     </row>
     <row r="378">
-      <c r="B378" s="10"/>
+      <c r="B378" s="11"/>
     </row>
     <row r="379">
-      <c r="B379" s="10"/>
+      <c r="B379" s="11"/>
     </row>
     <row r="380">
-      <c r="B380" s="10"/>
+      <c r="B380" s="11"/>
     </row>
     <row r="381">
-      <c r="B381" s="10"/>
+      <c r="B381" s="11"/>
     </row>
     <row r="382">
-      <c r="B382" s="10"/>
+      <c r="B382" s="11"/>
     </row>
     <row r="383">
-      <c r="B383" s="10"/>
+      <c r="B383" s="11"/>
     </row>
     <row r="384">
-      <c r="B384" s="10"/>
+      <c r="B384" s="11"/>
     </row>
     <row r="385">
-      <c r="B385" s="10"/>
+      <c r="B385" s="11"/>
     </row>
     <row r="386">
-      <c r="B386" s="10"/>
+      <c r="B386" s="11"/>
     </row>
     <row r="387">
-      <c r="B387" s="10"/>
+      <c r="B387" s="11"/>
     </row>
     <row r="388">
-      <c r="B388" s="10"/>
+      <c r="B388" s="11"/>
     </row>
     <row r="389">
-      <c r="B389" s="10"/>
+      <c r="B389" s="11"/>
     </row>
     <row r="390">
-      <c r="B390" s="10"/>
+      <c r="B390" s="11"/>
     </row>
     <row r="391">
-      <c r="B391" s="10"/>
+      <c r="B391" s="11"/>
     </row>
     <row r="392">
-      <c r="B392" s="10"/>
+      <c r="B392" s="11"/>
     </row>
     <row r="393">
-      <c r="B393" s="10"/>
+      <c r="B393" s="11"/>
     </row>
     <row r="394">
-      <c r="B394" s="10"/>
+      <c r="B394" s="11"/>
     </row>
     <row r="395">
-      <c r="B395" s="10"/>
+      <c r="B395" s="11"/>
     </row>
     <row r="396">
-      <c r="B396" s="10"/>
+      <c r="B396" s="11"/>
     </row>
     <row r="397">
-      <c r="B397" s="10"/>
+      <c r="B397" s="11"/>
     </row>
     <row r="398">
-      <c r="B398" s="10"/>
+      <c r="B398" s="11"/>
     </row>
     <row r="399">
-      <c r="B399" s="10"/>
+      <c r="B399" s="11"/>
     </row>
     <row r="400">
-      <c r="B400" s="10"/>
+      <c r="B400" s="11"/>
     </row>
     <row r="401">
-      <c r="B401" s="10"/>
+      <c r="B401" s="11"/>
     </row>
     <row r="402">
-      <c r="B402" s="10"/>
+      <c r="B402" s="11"/>
     </row>
     <row r="403">
-      <c r="B403" s="10"/>
+      <c r="B403" s="11"/>
     </row>
     <row r="404">
-      <c r="B404" s="10"/>
+      <c r="B404" s="11"/>
     </row>
     <row r="405">
-      <c r="B405" s="10"/>
+      <c r="B405" s="11"/>
     </row>
     <row r="406">
-      <c r="B406" s="10"/>
+      <c r="B406" s="11"/>
     </row>
     <row r="407">
-      <c r="B407" s="10"/>
+      <c r="B407" s="11"/>
     </row>
     <row r="408">
-      <c r="B408" s="10"/>
+      <c r="B408" s="11"/>
     </row>
     <row r="409">
-      <c r="B409" s="10"/>
+      <c r="B409" s="11"/>
     </row>
     <row r="410">
-      <c r="B410" s="10"/>
+      <c r="B410" s="11"/>
     </row>
     <row r="411">
-      <c r="B411" s="10"/>
+      <c r="B411" s="11"/>
     </row>
     <row r="412">
-      <c r="B412" s="10"/>
+      <c r="B412" s="11"/>
     </row>
     <row r="413">
-      <c r="B413" s="10"/>
+      <c r="B413" s="11"/>
     </row>
     <row r="414">
-      <c r="B414" s="10"/>
+      <c r="B414" s="11"/>
     </row>
     <row r="415">
-      <c r="B415" s="10"/>
+      <c r="B415" s="11"/>
     </row>
     <row r="416">
-      <c r="B416" s="10"/>
+      <c r="B416" s="11"/>
     </row>
     <row r="417">
-      <c r="B417" s="10"/>
+      <c r="B417" s="11"/>
     </row>
     <row r="418">
-      <c r="B418" s="10"/>
+      <c r="B418" s="11"/>
     </row>
     <row r="419">
-      <c r="B419" s="10"/>
+      <c r="B419" s="11"/>
     </row>
     <row r="420">
-      <c r="B420" s="10"/>
+      <c r="B420" s="11"/>
     </row>
     <row r="421">
-      <c r="B421" s="10"/>
+      <c r="B421" s="11"/>
     </row>
     <row r="422">
-      <c r="B422" s="10"/>
+      <c r="B422" s="11"/>
     </row>
     <row r="423">
-      <c r="B423" s="10"/>
+      <c r="B423" s="11"/>
     </row>
     <row r="424">
-      <c r="B424" s="10"/>
+      <c r="B424" s="11"/>
     </row>
     <row r="425">
-      <c r="B425" s="10"/>
+      <c r="B425" s="11"/>
     </row>
     <row r="426">
-      <c r="B426" s="10"/>
+      <c r="B426" s="11"/>
     </row>
     <row r="427">
-      <c r="B427" s="10"/>
+      <c r="B427" s="11"/>
     </row>
     <row r="428">
-      <c r="B428" s="10"/>
+      <c r="B428" s="11"/>
     </row>
     <row r="429">
-      <c r="B429" s="10"/>
+      <c r="B429" s="11"/>
     </row>
     <row r="430">
-      <c r="B430" s="10"/>
+      <c r="B430" s="11"/>
     </row>
     <row r="431">
-      <c r="B431" s="10"/>
+      <c r="B431" s="11"/>
     </row>
     <row r="432">
-      <c r="B432" s="10"/>
+      <c r="B432" s="11"/>
     </row>
     <row r="433">
-      <c r="B433" s="10"/>
+      <c r="B433" s="11"/>
     </row>
     <row r="434">
-      <c r="B434" s="10"/>
+      <c r="B434" s="11"/>
     </row>
     <row r="435">
-      <c r="B435" s="10"/>
+      <c r="B435" s="11"/>
     </row>
     <row r="436">
-      <c r="B436" s="10"/>
+      <c r="B436" s="11"/>
     </row>
     <row r="437">
-      <c r="B437" s="10"/>
+      <c r="B437" s="11"/>
     </row>
     <row r="438">
-      <c r="B438" s="10"/>
+      <c r="B438" s="11"/>
     </row>
     <row r="439">
-      <c r="B439" s="10"/>
+      <c r="B439" s="11"/>
     </row>
     <row r="440">
-      <c r="B440" s="10"/>
+      <c r="B440" s="11"/>
     </row>
     <row r="441">
-      <c r="B441" s="10"/>
+      <c r="B441" s="11"/>
     </row>
     <row r="442">
-      <c r="B442" s="10"/>
+      <c r="B442" s="11"/>
     </row>
     <row r="443">
-      <c r="B443" s="10"/>
+      <c r="B443" s="11"/>
     </row>
     <row r="444">
-      <c r="B444" s="10"/>
+      <c r="B444" s="11"/>
     </row>
     <row r="445">
-      <c r="B445" s="10"/>
+      <c r="B445" s="11"/>
     </row>
     <row r="446">
-      <c r="B446" s="10"/>
+      <c r="B446" s="11"/>
     </row>
     <row r="447">
-      <c r="B447" s="10"/>
+      <c r="B447" s="11"/>
     </row>
     <row r="448">
-      <c r="B448" s="10"/>
+      <c r="B448" s="11"/>
     </row>
     <row r="449">
-      <c r="B449" s="10"/>
+      <c r="B449" s="11"/>
     </row>
     <row r="450">
-      <c r="B450" s="10"/>
+      <c r="B450" s="11"/>
     </row>
     <row r="451">
-      <c r="B451" s="10"/>
+      <c r="B451" s="11"/>
     </row>
     <row r="452">
-      <c r="B452" s="10"/>
+      <c r="B452" s="11"/>
     </row>
     <row r="453">
-      <c r="B453" s="10"/>
+      <c r="B453" s="11"/>
     </row>
     <row r="454">
-      <c r="B454" s="10"/>
+      <c r="B454" s="11"/>
     </row>
     <row r="455">
-      <c r="B455" s="10"/>
+      <c r="B455" s="11"/>
     </row>
     <row r="456">
-      <c r="B456" s="10"/>
+      <c r="B456" s="11"/>
     </row>
     <row r="457">
-      <c r="B457" s="10"/>
+      <c r="B457" s="11"/>
     </row>
     <row r="458">
-      <c r="B458" s="10"/>
+      <c r="B458" s="11"/>
     </row>
     <row r="459">
-      <c r="B459" s="10"/>
+      <c r="B459" s="11"/>
     </row>
     <row r="460">
-      <c r="B460" s="10"/>
+      <c r="B460" s="11"/>
     </row>
     <row r="461">
-      <c r="B461" s="10"/>
+      <c r="B461" s="11"/>
     </row>
     <row r="462">
-      <c r="B462" s="10"/>
+      <c r="B462" s="11"/>
     </row>
     <row r="463">
-      <c r="B463" s="10"/>
+      <c r="B463" s="11"/>
     </row>
     <row r="464">
-      <c r="B464" s="10"/>
+      <c r="B464" s="11"/>
     </row>
     <row r="465">
-      <c r="B465" s="10"/>
+      <c r="B465" s="11"/>
     </row>
     <row r="466">
-      <c r="B466" s="10"/>
+      <c r="B466" s="11"/>
     </row>
     <row r="467">
-      <c r="B467" s="10"/>
+      <c r="B467" s="11"/>
     </row>
     <row r="468">
-      <c r="B468" s="10"/>
+      <c r="B468" s="11"/>
     </row>
     <row r="469">
-      <c r="B469" s="10"/>
+      <c r="B469" s="11"/>
     </row>
     <row r="470">
-      <c r="B470" s="10"/>
+      <c r="B470" s="11"/>
     </row>
     <row r="471">
-      <c r="B471" s="10"/>
+      <c r="B471" s="11"/>
     </row>
     <row r="472">
-      <c r="B472" s="10"/>
+      <c r="B472" s="11"/>
     </row>
     <row r="473">
-      <c r="B473" s="10"/>
+      <c r="B473" s="11"/>
     </row>
     <row r="474">
-      <c r="B474" s="10"/>
+      <c r="B474" s="11"/>
     </row>
     <row r="475">
-      <c r="B475" s="10"/>
+      <c r="B475" s="11"/>
     </row>
     <row r="476">
-      <c r="B476" s="10"/>
+      <c r="B476" s="11"/>
     </row>
     <row r="477">
-      <c r="B477" s="10"/>
+      <c r="B477" s="11"/>
     </row>
     <row r="478">
-      <c r="B478" s="10"/>
+      <c r="B478" s="11"/>
     </row>
     <row r="479">
-      <c r="B479" s="10"/>
+      <c r="B479" s="11"/>
     </row>
     <row r="480">
-      <c r="B480" s="10"/>
+      <c r="B480" s="11"/>
     </row>
     <row r="481">
-      <c r="B481" s="10"/>
+      <c r="B481" s="11"/>
     </row>
     <row r="482">
-      <c r="B482" s="10"/>
+      <c r="B482" s="11"/>
     </row>
     <row r="483">
-      <c r="B483" s="10"/>
+      <c r="B483" s="11"/>
     </row>
     <row r="484">
-      <c r="B484" s="10"/>
+      <c r="B484" s="11"/>
     </row>
     <row r="485">
-      <c r="B485" s="10"/>
+      <c r="B485" s="11"/>
     </row>
     <row r="486">
-      <c r="B486" s="10"/>
+      <c r="B486" s="11"/>
     </row>
     <row r="487">
-      <c r="B487" s="10"/>
+      <c r="B487" s="11"/>
     </row>
     <row r="488">
-      <c r="B488" s="10"/>
+      <c r="B488" s="11"/>
     </row>
     <row r="489">
-      <c r="B489" s="10"/>
+      <c r="B489" s="11"/>
     </row>
     <row r="490">
-      <c r="B490" s="10"/>
+      <c r="B490" s="11"/>
     </row>
     <row r="491">
-      <c r="B491" s="10"/>
+      <c r="B491" s="11"/>
     </row>
     <row r="492">
-      <c r="B492" s="10"/>
+      <c r="B492" s="11"/>
     </row>
     <row r="493">
-      <c r="B493" s="10"/>
+      <c r="B493" s="11"/>
     </row>
     <row r="494">
-      <c r="B494" s="10"/>
+      <c r="B494" s="11"/>
     </row>
     <row r="495">
-      <c r="B495" s="10"/>
+      <c r="B495" s="11"/>
     </row>
     <row r="496">
-      <c r="B496" s="10"/>
+      <c r="B496" s="11"/>
     </row>
     <row r="497">
-      <c r="B497" s="10"/>
+      <c r="B497" s="11"/>
     </row>
     <row r="498">
-      <c r="B498" s="10"/>
+      <c r="B498" s="11"/>
     </row>
     <row r="499">
-      <c r="B499" s="10"/>
+      <c r="B499" s="11"/>
     </row>
     <row r="500">
-      <c r="B500" s="10"/>
+      <c r="B500" s="11"/>
     </row>
     <row r="501">
-      <c r="B501" s="10"/>
+      <c r="B501" s="11"/>
     </row>
     <row r="502">
-      <c r="B502" s="10"/>
+      <c r="B502" s="11"/>
     </row>
     <row r="503">
-      <c r="B503" s="10"/>
+      <c r="B503" s="11"/>
     </row>
     <row r="504">
-      <c r="B504" s="10"/>
+      <c r="B504" s="11"/>
     </row>
     <row r="505">
-      <c r="B505" s="10"/>
+      <c r="B505" s="11"/>
     </row>
     <row r="506">
-      <c r="B506" s="10"/>
+      <c r="B506" s="11"/>
     </row>
     <row r="507">
-      <c r="B507" s="10"/>
+      <c r="B507" s="11"/>
     </row>
     <row r="508">
-      <c r="B508" s="10"/>
+      <c r="B508" s="11"/>
     </row>
     <row r="509">
-      <c r="B509" s="10"/>
+      <c r="B509" s="11"/>
     </row>
     <row r="510">
-      <c r="B510" s="10"/>
+      <c r="B510" s="11"/>
     </row>
     <row r="511">
-      <c r="B511" s="10"/>
+      <c r="B511" s="11"/>
     </row>
     <row r="512">
-      <c r="B512" s="10"/>
+      <c r="B512" s="11"/>
     </row>
     <row r="513">
-      <c r="B513" s="10"/>
+      <c r="B513" s="11"/>
     </row>
     <row r="514">
-      <c r="B514" s="10"/>
+      <c r="B514" s="11"/>
     </row>
     <row r="515">
-      <c r="B515" s="10"/>
+      <c r="B515" s="11"/>
     </row>
     <row r="516">
-      <c r="B516" s="10"/>
+      <c r="B516" s="11"/>
     </row>
     <row r="517">
-      <c r="B517" s="10"/>
+      <c r="B517" s="11"/>
     </row>
     <row r="518">
-      <c r="B518" s="10"/>
+      <c r="B518" s="11"/>
     </row>
     <row r="519">
-      <c r="B519" s="10"/>
+      <c r="B519" s="11"/>
     </row>
     <row r="520">
-      <c r="B520" s="10"/>
+      <c r="B520" s="11"/>
     </row>
     <row r="521">
-      <c r="B521" s="10"/>
+      <c r="B521" s="11"/>
     </row>
     <row r="522">
-      <c r="B522" s="10"/>
+      <c r="B522" s="11"/>
     </row>
     <row r="523">
-      <c r="B523" s="10"/>
+      <c r="B523" s="11"/>
     </row>
     <row r="524">
-      <c r="B524" s="10"/>
+      <c r="B524" s="11"/>
     </row>
     <row r="525">
-      <c r="B525" s="10"/>
+      <c r="B525" s="11"/>
     </row>
     <row r="526">
-      <c r="B526" s="10"/>
+      <c r="B526" s="11"/>
     </row>
     <row r="527">
-      <c r="B527" s="10"/>
+      <c r="B527" s="11"/>
     </row>
     <row r="528">
-      <c r="B528" s="10"/>
+      <c r="B528" s="11"/>
     </row>
     <row r="529">
-      <c r="B529" s="10"/>
+      <c r="B529" s="11"/>
     </row>
     <row r="530">
-      <c r="B530" s="10"/>
+      <c r="B530" s="11"/>
     </row>
     <row r="531">
-      <c r="B531" s="10"/>
+      <c r="B531" s="11"/>
     </row>
     <row r="532">
-      <c r="B532" s="10"/>
+      <c r="B532" s="11"/>
     </row>
     <row r="533">
-      <c r="B533" s="10"/>
+      <c r="B533" s="11"/>
     </row>
     <row r="534">
-      <c r="B534" s="10"/>
+      <c r="B534" s="11"/>
     </row>
     <row r="535">
-      <c r="B535" s="10"/>
+      <c r="B535" s="11"/>
     </row>
     <row r="536">
-      <c r="B536" s="10"/>
+      <c r="B536" s="11"/>
     </row>
     <row r="537">
-      <c r="B537" s="10"/>
+      <c r="B537" s="11"/>
     </row>
     <row r="538">
-      <c r="B538" s="10"/>
+      <c r="B538" s="11"/>
     </row>
     <row r="539">
-      <c r="B539" s="10"/>
+      <c r="B539" s="11"/>
     </row>
     <row r="540">
-      <c r="B540" s="10"/>
+      <c r="B540" s="11"/>
     </row>
     <row r="541">
-      <c r="B541" s="10"/>
+      <c r="B541" s="11"/>
     </row>
     <row r="542">
-      <c r="B542" s="10"/>
+      <c r="B542" s="11"/>
     </row>
     <row r="543">
-      <c r="B543" s="10"/>
+      <c r="B543" s="11"/>
     </row>
     <row r="544">
-      <c r="B544" s="10"/>
+      <c r="B544" s="11"/>
     </row>
     <row r="545">
-      <c r="B545" s="10"/>
+      <c r="B545" s="11"/>
     </row>
     <row r="546">
-      <c r="B546" s="10"/>
+      <c r="B546" s="11"/>
     </row>
     <row r="547">
-      <c r="B547" s="10"/>
+      <c r="B547" s="11"/>
     </row>
     <row r="548">
-      <c r="B548" s="10"/>
+      <c r="B548" s="11"/>
     </row>
     <row r="549">
-      <c r="B549" s="10"/>
+      <c r="B549" s="11"/>
     </row>
     <row r="550">
-      <c r="B550" s="10"/>
+      <c r="B550" s="11"/>
     </row>
     <row r="551">
-      <c r="B551" s="10"/>
+      <c r="B551" s="11"/>
     </row>
     <row r="552">
-      <c r="B552" s="10"/>
+      <c r="B552" s="11"/>
     </row>
     <row r="553">
-      <c r="B553" s="10"/>
+      <c r="B553" s="11"/>
     </row>
     <row r="554">
-      <c r="B554" s="10"/>
+      <c r="B554" s="11"/>
     </row>
     <row r="555">
-      <c r="B555" s="10"/>
+      <c r="B555" s="11"/>
     </row>
     <row r="556">
-      <c r="B556" s="10"/>
+      <c r="B556" s="11"/>
     </row>
     <row r="557">
-      <c r="B557" s="10"/>
+      <c r="B557" s="11"/>
     </row>
     <row r="558">
-      <c r="B558" s="10"/>
+      <c r="B558" s="11"/>
     </row>
     <row r="559">
-      <c r="B559" s="10"/>
+      <c r="B559" s="11"/>
     </row>
     <row r="560">
-      <c r="B560" s="10"/>
+      <c r="B560" s="11"/>
     </row>
     <row r="561">
-      <c r="B561" s="10"/>
+      <c r="B561" s="11"/>
     </row>
     <row r="562">
-      <c r="B562" s="10"/>
+      <c r="B562" s="11"/>
     </row>
     <row r="563">
-      <c r="B563" s="10"/>
+      <c r="B563" s="11"/>
     </row>
     <row r="564">
-      <c r="B564" s="10"/>
+      <c r="B564" s="11"/>
     </row>
     <row r="565">
-      <c r="B565" s="10"/>
+      <c r="B565" s="11"/>
     </row>
     <row r="566">
-      <c r="B566" s="10"/>
+      <c r="B566" s="11"/>
     </row>
     <row r="567">
-      <c r="B567" s="10"/>
+      <c r="B567" s="11"/>
     </row>
     <row r="568">
-      <c r="B568" s="10"/>
+      <c r="B568" s="11"/>
     </row>
     <row r="569">
-      <c r="B569" s="10"/>
+      <c r="B569" s="11"/>
     </row>
     <row r="570">
-      <c r="B570" s="10"/>
+      <c r="B570" s="11"/>
     </row>
     <row r="571">
-      <c r="B571" s="10"/>
+      <c r="B571" s="11"/>
     </row>
     <row r="572">
-      <c r="B572" s="10"/>
+      <c r="B572" s="11"/>
     </row>
     <row r="573">
-      <c r="B573" s="10"/>
+      <c r="B573" s="11"/>
     </row>
     <row r="574">
-      <c r="B574" s="10"/>
+      <c r="B574" s="11"/>
     </row>
     <row r="575">
-      <c r="B575" s="10"/>
+      <c r="B575" s="11"/>
     </row>
     <row r="576">
-      <c r="B576" s="10"/>
+      <c r="B576" s="11"/>
     </row>
     <row r="577">
-      <c r="B577" s="10"/>
+      <c r="B577" s="11"/>
     </row>
     <row r="578">
-      <c r="B578" s="10"/>
+      <c r="B578" s="11"/>
     </row>
     <row r="579">
-      <c r="B579" s="10"/>
+      <c r="B579" s="11"/>
     </row>
     <row r="580">
-      <c r="B580" s="10"/>
+      <c r="B580" s="11"/>
     </row>
     <row r="581">
-      <c r="B581" s="10"/>
+      <c r="B581" s="11"/>
     </row>
     <row r="582">
-      <c r="B582" s="10"/>
+      <c r="B582" s="11"/>
     </row>
     <row r="583">
-      <c r="B583" s="10"/>
+      <c r="B583" s="11"/>
     </row>
     <row r="584">
-      <c r="B584" s="10"/>
+      <c r="B584" s="11"/>
     </row>
     <row r="585">
-      <c r="B585" s="10"/>
+      <c r="B585" s="11"/>
     </row>
     <row r="586">
-      <c r="B586" s="10"/>
+      <c r="B586" s="11"/>
     </row>
     <row r="587">
-      <c r="B587" s="10"/>
+      <c r="B587" s="11"/>
     </row>
     <row r="588">
-      <c r="B588" s="10"/>
+      <c r="B588" s="11"/>
     </row>
     <row r="589">
-      <c r="B589" s="10"/>
+      <c r="B589" s="11"/>
     </row>
     <row r="590">
-      <c r="B590" s="10"/>
+      <c r="B590" s="11"/>
     </row>
     <row r="591">
-      <c r="B591" s="10"/>
+      <c r="B591" s="11"/>
     </row>
     <row r="592">
-      <c r="B592" s="10"/>
+      <c r="B592" s="11"/>
     </row>
     <row r="593">
-      <c r="B593" s="10"/>
+      <c r="B593" s="11"/>
     </row>
     <row r="594">
-      <c r="B594" s="10"/>
+      <c r="B594" s="11"/>
     </row>
     <row r="595">
-      <c r="B595" s="10"/>
+      <c r="B595" s="11"/>
     </row>
     <row r="596">
-      <c r="B596" s="10"/>
+      <c r="B596" s="11"/>
     </row>
     <row r="597">
-      <c r="B597" s="10"/>
+      <c r="B597" s="11"/>
     </row>
     <row r="598">
-      <c r="B598" s="10"/>
+      <c r="B598" s="11"/>
     </row>
     <row r="599">
-      <c r="B599" s="10"/>
+      <c r="B599" s="11"/>
     </row>
     <row r="600">
-      <c r="B600" s="10"/>
+      <c r="B600" s="11"/>
     </row>
     <row r="601">
-      <c r="B601" s="10"/>
+      <c r="B601" s="11"/>
     </row>
     <row r="602">
-      <c r="B602" s="10"/>
+      <c r="B602" s="11"/>
     </row>
     <row r="603">
-      <c r="B603" s="10"/>
+      <c r="B603" s="11"/>
     </row>
     <row r="604">
-      <c r="B604" s="10"/>
+      <c r="B604" s="11"/>
     </row>
     <row r="605">
-      <c r="B605" s="10"/>
+      <c r="B605" s="11"/>
     </row>
     <row r="606">
-      <c r="B606" s="10"/>
+      <c r="B606" s="11"/>
     </row>
     <row r="607">
-      <c r="B607" s="10"/>
+      <c r="B607" s="11"/>
     </row>
     <row r="608">
-      <c r="B608" s="10"/>
+      <c r="B608" s="11"/>
     </row>
     <row r="609">
-      <c r="B609" s="10"/>
+      <c r="B609" s="11"/>
     </row>
     <row r="610">
-      <c r="B610" s="10"/>
+      <c r="B610" s="11"/>
     </row>
     <row r="611">
-      <c r="B611" s="10"/>
+      <c r="B611" s="11"/>
     </row>
     <row r="612">
-      <c r="B612" s="10"/>
+      <c r="B612" s="11"/>
     </row>
     <row r="613">
-      <c r="B613" s="10"/>
+      <c r="B613" s="11"/>
     </row>
     <row r="614">
-      <c r="B614" s="10"/>
+      <c r="B614" s="11"/>
     </row>
     <row r="615">
-      <c r="B615" s="10"/>
+      <c r="B615" s="11"/>
     </row>
     <row r="616">
-      <c r="B616" s="10"/>
+      <c r="B616" s="11"/>
     </row>
     <row r="617">
-      <c r="B617" s="10"/>
+      <c r="B617" s="11"/>
     </row>
     <row r="618">
-      <c r="B618" s="10"/>
+      <c r="B618" s="11"/>
     </row>
     <row r="619">
-      <c r="B619" s="10"/>
+      <c r="B619" s="11"/>
     </row>
     <row r="620">
-      <c r="B620" s="10"/>
+      <c r="B620" s="11"/>
     </row>
     <row r="621">
-      <c r="B621" s="10"/>
+      <c r="B621" s="11"/>
     </row>
     <row r="622">
-      <c r="B622" s="10"/>
+      <c r="B622" s="11"/>
     </row>
     <row r="623">
-      <c r="B623" s="10"/>
+      <c r="B623" s="11"/>
     </row>
     <row r="624">
-      <c r="B624" s="10"/>
+      <c r="B624" s="11"/>
     </row>
     <row r="625">
-      <c r="B625" s="10"/>
+      <c r="B625" s="11"/>
     </row>
     <row r="626">
-      <c r="B626" s="10"/>
+      <c r="B626" s="11"/>
     </row>
     <row r="627">
-      <c r="B627" s="10"/>
+      <c r="B627" s="11"/>
     </row>
     <row r="628">
-      <c r="B628" s="10"/>
+      <c r="B628" s="11"/>
     </row>
     <row r="629">
-      <c r="B629" s="10"/>
+      <c r="B629" s="11"/>
     </row>
     <row r="630">
-      <c r="B630" s="10"/>
+      <c r="B630" s="11"/>
     </row>
     <row r="631">
-      <c r="B631" s="10"/>
+      <c r="B631" s="11"/>
     </row>
     <row r="632">
-      <c r="B632" s="10"/>
+      <c r="B632" s="11"/>
     </row>
     <row r="633">
-      <c r="B633" s="10"/>
+      <c r="B633" s="11"/>
     </row>
     <row r="634">
-      <c r="B634" s="10"/>
+      <c r="B634" s="11"/>
     </row>
     <row r="635">
-      <c r="B635" s="10"/>
+      <c r="B635" s="11"/>
     </row>
     <row r="636">
-      <c r="B636" s="10"/>
+      <c r="B636" s="11"/>
     </row>
     <row r="637">
-      <c r="B637" s="10"/>
+      <c r="B637" s="11"/>
     </row>
     <row r="638">
-      <c r="B638" s="10"/>
+      <c r="B638" s="11"/>
     </row>
     <row r="639">
-      <c r="B639" s="10"/>
+      <c r="B639" s="11"/>
     </row>
     <row r="640">
-      <c r="B640" s="10"/>
+      <c r="B640" s="11"/>
     </row>
     <row r="641">
-      <c r="B641" s="10"/>
+      <c r="B641" s="11"/>
     </row>
     <row r="642">
-      <c r="B642" s="10"/>
+      <c r="B642" s="11"/>
     </row>
     <row r="643">
-      <c r="B643" s="10"/>
+      <c r="B643" s="11"/>
     </row>
     <row r="644">
-      <c r="B644" s="10"/>
+      <c r="B644" s="11"/>
     </row>
     <row r="645">
-      <c r="B645" s="10"/>
+      <c r="B645" s="11"/>
     </row>
     <row r="646">
-      <c r="B646" s="10"/>
+      <c r="B646" s="11"/>
     </row>
     <row r="647">
-      <c r="B647" s="10"/>
+      <c r="B647" s="11"/>
     </row>
     <row r="648">
-      <c r="B648" s="10"/>
+      <c r="B648" s="11"/>
     </row>
     <row r="649">
-      <c r="B649" s="10"/>
+      <c r="B649" s="11"/>
     </row>
     <row r="650">
-      <c r="B650" s="10"/>
+      <c r="B650" s="11"/>
     </row>
     <row r="651">
-      <c r="B651" s="10"/>
+      <c r="B651" s="11"/>
     </row>
     <row r="652">
-      <c r="B652" s="10"/>
+      <c r="B652" s="11"/>
     </row>
     <row r="653">
-      <c r="B653" s="10"/>
+      <c r="B653" s="11"/>
     </row>
     <row r="654">
-      <c r="B654" s="10"/>
+      <c r="B654" s="11"/>
     </row>
     <row r="655">
-      <c r="B655" s="10"/>
+      <c r="B655" s="11"/>
     </row>
     <row r="656">
-      <c r="B656" s="10"/>
+      <c r="B656" s="11"/>
     </row>
     <row r="657">
-      <c r="B657" s="10"/>
+      <c r="B657" s="11"/>
     </row>
     <row r="658">
-      <c r="B658" s="10"/>
+      <c r="B658" s="11"/>
     </row>
     <row r="659">
-      <c r="B659" s="10"/>
+      <c r="B659" s="11"/>
     </row>
     <row r="660">
-      <c r="B660" s="10"/>
+      <c r="B660" s="11"/>
     </row>
     <row r="661">
-      <c r="B661" s="10"/>
+      <c r="B661" s="11"/>
     </row>
     <row r="662">
-      <c r="B662" s="10"/>
+      <c r="B662" s="11"/>
     </row>
     <row r="663">
-      <c r="B663" s="10"/>
+      <c r="B663" s="11"/>
     </row>
     <row r="664">
-      <c r="B664" s="10"/>
+      <c r="B664" s="11"/>
     </row>
     <row r="665">
-      <c r="B665" s="10"/>
+      <c r="B665" s="11"/>
     </row>
     <row r="666">
-      <c r="B666" s="10"/>
+      <c r="B666" s="11"/>
     </row>
     <row r="667">
-      <c r="B667" s="10"/>
+      <c r="B667" s="11"/>
     </row>
     <row r="668">
-      <c r="B668" s="10"/>
+      <c r="B668" s="11"/>
     </row>
     <row r="669">
-      <c r="B669" s="10"/>
+      <c r="B669" s="11"/>
     </row>
     <row r="670">
-      <c r="B670" s="10"/>
+      <c r="B670" s="11"/>
     </row>
     <row r="671">
-      <c r="B671" s="10"/>
+      <c r="B671" s="11"/>
     </row>
     <row r="672">
-      <c r="B672" s="10"/>
+      <c r="B672" s="11"/>
     </row>
     <row r="673">
-      <c r="B673" s="10"/>
+      <c r="B673" s="11"/>
     </row>
     <row r="674">
-      <c r="B674" s="10"/>
+      <c r="B674" s="11"/>
     </row>
     <row r="675">
-      <c r="B675" s="10"/>
+      <c r="B675" s="11"/>
     </row>
     <row r="676">
-      <c r="B676" s="10"/>
+      <c r="B676" s="11"/>
     </row>
     <row r="677">
-      <c r="B677" s="10"/>
+      <c r="B677" s="11"/>
     </row>
     <row r="678">
-      <c r="B678" s="10"/>
+      <c r="B678" s="11"/>
     </row>
     <row r="679">
-      <c r="B679" s="10"/>
+      <c r="B679" s="11"/>
     </row>
     <row r="680">
-      <c r="B680" s="10"/>
+      <c r="B680" s="11"/>
     </row>
     <row r="681">
-      <c r="B681" s="10"/>
+      <c r="B681" s="11"/>
     </row>
     <row r="682">
-      <c r="B682" s="10"/>
+      <c r="B682" s="11"/>
     </row>
     <row r="683">
-      <c r="B683" s="10"/>
+      <c r="B683" s="11"/>
     </row>
     <row r="684">
-      <c r="B684" s="10"/>
+      <c r="B684" s="11"/>
     </row>
     <row r="685">
-      <c r="B685" s="10"/>
+      <c r="B685" s="11"/>
     </row>
     <row r="686">
-      <c r="B686" s="10"/>
+      <c r="B686" s="11"/>
     </row>
     <row r="687">
-      <c r="B687" s="10"/>
+      <c r="B687" s="11"/>
     </row>
     <row r="688">
-      <c r="B688" s="10"/>
+      <c r="B688" s="11"/>
     </row>
     <row r="689">
-      <c r="B689" s="10"/>
+      <c r="B689" s="11"/>
     </row>
     <row r="690">
-      <c r="B690" s="10"/>
+      <c r="B690" s="11"/>
     </row>
     <row r="691">
-      <c r="B691" s="10"/>
+      <c r="B691" s="11"/>
     </row>
     <row r="692">
-      <c r="B692" s="10"/>
+      <c r="B692" s="11"/>
     </row>
     <row r="693">
-      <c r="B693" s="10"/>
+      <c r="B693" s="11"/>
     </row>
     <row r="694">
-      <c r="B694" s="10"/>
+      <c r="B694" s="11"/>
     </row>
     <row r="695">
-      <c r="B695" s="10"/>
+      <c r="B695" s="11"/>
     </row>
     <row r="696">
-      <c r="B696" s="10"/>
+      <c r="B696" s="11"/>
     </row>
     <row r="697">
-      <c r="B697" s="10"/>
+      <c r="B697" s="11"/>
     </row>
     <row r="698">
-      <c r="B698" s="10"/>
+      <c r="B698" s="11"/>
     </row>
     <row r="699">
-      <c r="B699" s="10"/>
+      <c r="B699" s="11"/>
     </row>
     <row r="700">
-      <c r="B700" s="10"/>
+      <c r="B700" s="11"/>
     </row>
     <row r="701">
-      <c r="B701" s="10"/>
+      <c r="B701" s="11"/>
     </row>
     <row r="702">
-      <c r="B702" s="10"/>
+      <c r="B702" s="11"/>
     </row>
     <row r="703">
-      <c r="B703" s="10"/>
+      <c r="B703" s="11"/>
     </row>
     <row r="704">
-      <c r="B704" s="10"/>
+      <c r="B704" s="11"/>
     </row>
     <row r="705">
-      <c r="B705" s="10"/>
+      <c r="B705" s="11"/>
     </row>
     <row r="706">
-      <c r="B706" s="10"/>
+      <c r="B706" s="11"/>
     </row>
     <row r="707">
-      <c r="B707" s="10"/>
+      <c r="B707" s="11"/>
     </row>
     <row r="708">
-      <c r="B708" s="10"/>
+      <c r="B708" s="11"/>
     </row>
     <row r="709">
-      <c r="B709" s="10"/>
+      <c r="B709" s="11"/>
     </row>
     <row r="710">
-      <c r="B710" s="10"/>
+      <c r="B710" s="11"/>
     </row>
     <row r="711">
-      <c r="B711" s="10"/>
+      <c r="B711" s="11"/>
     </row>
     <row r="712">
-      <c r="B712" s="10"/>
+      <c r="B712" s="11"/>
     </row>
     <row r="713">
-      <c r="B713" s="10"/>
+      <c r="B713" s="11"/>
     </row>
     <row r="714">
-      <c r="B714" s="10"/>
+      <c r="B714" s="11"/>
     </row>
     <row r="715">
-      <c r="B715" s="10"/>
+      <c r="B715" s="11"/>
     </row>
     <row r="716">
-      <c r="B716" s="10"/>
+      <c r="B716" s="11"/>
     </row>
     <row r="717">
-      <c r="B717" s="10"/>
+      <c r="B717" s="11"/>
     </row>
     <row r="718">
-      <c r="B718" s="10"/>
+      <c r="B718" s="11"/>
     </row>
     <row r="719">
-      <c r="B719" s="10"/>
+      <c r="B719" s="11"/>
     </row>
     <row r="720">
-      <c r="B720" s="10"/>
+      <c r="B720" s="11"/>
     </row>
     <row r="721">
-      <c r="B721" s="10"/>
+      <c r="B721" s="11"/>
     </row>
     <row r="722">
-      <c r="B722" s="10"/>
+      <c r="B722" s="11"/>
     </row>
     <row r="723">
-      <c r="B723" s="10"/>
+      <c r="B723" s="11"/>
     </row>
     <row r="724">
-      <c r="B724" s="10"/>
+      <c r="B724" s="11"/>
     </row>
     <row r="725">
-      <c r="B725" s="10"/>
+      <c r="B725" s="11"/>
     </row>
     <row r="726">
-      <c r="B726" s="10"/>
+      <c r="B726" s="11"/>
     </row>
     <row r="727">
-      <c r="B727" s="10"/>
+      <c r="B727" s="11"/>
     </row>
     <row r="728">
-      <c r="B728" s="10"/>
+      <c r="B728" s="11"/>
     </row>
     <row r="729">
-      <c r="B729" s="10"/>
+      <c r="B729" s="11"/>
     </row>
     <row r="730">
-      <c r="B730" s="10"/>
+      <c r="B730" s="11"/>
     </row>
     <row r="731">
-      <c r="B731" s="10"/>
+      <c r="B731" s="11"/>
     </row>
     <row r="732">
-      <c r="B732" s="10"/>
+      <c r="B732" s="11"/>
     </row>
     <row r="733">
-      <c r="B733" s="10"/>
+      <c r="B733" s="11"/>
     </row>
     <row r="734">
-      <c r="B734" s="10"/>
+      <c r="B734" s="11"/>
     </row>
     <row r="735">
-      <c r="B735" s="10"/>
+      <c r="B735" s="11"/>
     </row>
     <row r="736">
-      <c r="B736" s="10"/>
+      <c r="B736" s="11"/>
     </row>
     <row r="737">
-      <c r="B737" s="10"/>
+      <c r="B737" s="11"/>
     </row>
     <row r="738">
-      <c r="B738" s="10"/>
+      <c r="B738" s="11"/>
     </row>
     <row r="739">
-      <c r="B739" s="10"/>
+      <c r="B739" s="11"/>
     </row>
     <row r="740">
-      <c r="B740" s="10"/>
+      <c r="B740" s="11"/>
     </row>
     <row r="741">
-      <c r="B741" s="10"/>
+      <c r="B741" s="11"/>
     </row>
     <row r="742">
-      <c r="B742" s="10"/>
+      <c r="B742" s="11"/>
     </row>
     <row r="743">
-      <c r="B743" s="10"/>
+      <c r="B743" s="11"/>
     </row>
     <row r="744">
-      <c r="B744" s="10"/>
+      <c r="B744" s="11"/>
     </row>
     <row r="745">
-      <c r="B745" s="10"/>
+      <c r="B745" s="11"/>
     </row>
     <row r="746">
-      <c r="B746" s="10"/>
+      <c r="B746" s="11"/>
     </row>
     <row r="747">
-      <c r="B747" s="10"/>
+      <c r="B747" s="11"/>
     </row>
     <row r="748">
-      <c r="B748" s="10"/>
+      <c r="B748" s="11"/>
     </row>
     <row r="749">
-      <c r="B749" s="10"/>
+      <c r="B749" s="11"/>
     </row>
     <row r="750">
-      <c r="B750" s="10"/>
+      <c r="B750" s="11"/>
     </row>
     <row r="751">
-      <c r="B751" s="10"/>
+      <c r="B751" s="11"/>
     </row>
     <row r="752">
-      <c r="B752" s="10"/>
+      <c r="B752" s="11"/>
     </row>
     <row r="753">
-      <c r="B753" s="10"/>
+      <c r="B753" s="11"/>
     </row>
     <row r="754">
-      <c r="B754" s="10"/>
+      <c r="B754" s="11"/>
     </row>
     <row r="755">
-      <c r="B755" s="10"/>
+      <c r="B755" s="11"/>
     </row>
     <row r="756">
-      <c r="B756" s="10"/>
+      <c r="B756" s="11"/>
     </row>
     <row r="757">
-      <c r="B757" s="10"/>
+      <c r="B757" s="11"/>
     </row>
     <row r="758">
-      <c r="B758" s="10"/>
+      <c r="B758" s="11"/>
     </row>
     <row r="759">
-      <c r="B759" s="10"/>
+      <c r="B759" s="11"/>
     </row>
     <row r="760">
-      <c r="B760" s="10"/>
+      <c r="B760" s="11"/>
     </row>
     <row r="761">
-      <c r="B761" s="10"/>
+      <c r="B761" s="11"/>
     </row>
     <row r="762">
-      <c r="B762" s="10"/>
+      <c r="B762" s="11"/>
     </row>
     <row r="763">
-      <c r="B763" s="10"/>
+      <c r="B763" s="11"/>
     </row>
     <row r="764">
-      <c r="B764" s="10"/>
+      <c r="B764" s="11"/>
     </row>
     <row r="765">
-      <c r="B765" s="10"/>
+      <c r="B765" s="11"/>
     </row>
     <row r="766">
-      <c r="B766" s="10"/>
+      <c r="B766" s="11"/>
     </row>
     <row r="767">
-      <c r="B767" s="10"/>
+      <c r="B767" s="11"/>
     </row>
     <row r="768">
-      <c r="B768" s="10"/>
+      <c r="B768" s="11"/>
     </row>
     <row r="769">
-      <c r="B769" s="10"/>
+      <c r="B769" s="11"/>
     </row>
     <row r="770">
-      <c r="B770" s="10"/>
+      <c r="B770" s="11"/>
     </row>
     <row r="771">
-      <c r="B771" s="10"/>
+      <c r="B771" s="11"/>
     </row>
     <row r="772">
-      <c r="B772" s="10"/>
+      <c r="B772" s="11"/>
     </row>
     <row r="773">
-      <c r="B773" s="10"/>
+      <c r="B773" s="11"/>
     </row>
     <row r="774">
-      <c r="B774" s="10"/>
+      <c r="B774" s="11"/>
     </row>
     <row r="775">
-      <c r="B775" s="10"/>
+      <c r="B775" s="11"/>
     </row>
     <row r="776">
-      <c r="B776" s="10"/>
+      <c r="B776" s="11"/>
     </row>
     <row r="777">
-      <c r="B777" s="10"/>
+      <c r="B777" s="11"/>
     </row>
     <row r="778">
-      <c r="B778" s="10"/>
+      <c r="B778" s="11"/>
     </row>
     <row r="779">
-      <c r="B779" s="10"/>
+      <c r="B779" s="11"/>
     </row>
     <row r="780">
-      <c r="B780" s="10"/>
+      <c r="B780" s="11"/>
     </row>
     <row r="781">
-      <c r="B781" s="10"/>
+      <c r="B781" s="11"/>
     </row>
     <row r="782">
-      <c r="B782" s="10"/>
+      <c r="B782" s="11"/>
     </row>
     <row r="783">
-      <c r="B783" s="10"/>
+      <c r="B783" s="11"/>
     </row>
     <row r="784">
-      <c r="B784" s="10"/>
+      <c r="B784" s="11"/>
     </row>
     <row r="785">
-      <c r="B785" s="10"/>
+      <c r="B785" s="11"/>
     </row>
     <row r="786">
-      <c r="B786" s="10"/>
+      <c r="B786" s="11"/>
     </row>
     <row r="787">
-      <c r="B787" s="10"/>
+      <c r="B787" s="11"/>
     </row>
     <row r="788">
-      <c r="B788" s="10"/>
+      <c r="B788" s="11"/>
     </row>
     <row r="789">
-      <c r="B789" s="10"/>
+      <c r="B789" s="11"/>
     </row>
     <row r="790">
-      <c r="B790" s="10"/>
+      <c r="B790" s="11"/>
     </row>
     <row r="791">
-      <c r="B791" s="10"/>
+      <c r="B791" s="11"/>
     </row>
     <row r="792">
-      <c r="B792" s="10"/>
+      <c r="B792" s="11"/>
     </row>
     <row r="793">
-      <c r="B793" s="10"/>
+      <c r="B793" s="11"/>
     </row>
     <row r="794">
-      <c r="B794" s="10"/>
+      <c r="B794" s="11"/>
     </row>
     <row r="795">
-      <c r="B795" s="10"/>
+      <c r="B795" s="11"/>
     </row>
     <row r="796">
-      <c r="B796" s="10"/>
+      <c r="B796" s="11"/>
     </row>
     <row r="797">
-      <c r="B797" s="10"/>
+      <c r="B797" s="11"/>
     </row>
     <row r="798">
-      <c r="B798" s="10"/>
+      <c r="B798" s="11"/>
     </row>
     <row r="799">
-      <c r="B799" s="10"/>
+      <c r="B799" s="11"/>
     </row>
     <row r="800">
-      <c r="B800" s="10"/>
+      <c r="B800" s="11"/>
     </row>
     <row r="801">
-      <c r="B801" s="10"/>
+      <c r="B801" s="11"/>
     </row>
     <row r="802">
-      <c r="B802" s="10"/>
+      <c r="B802" s="11"/>
     </row>
     <row r="803">
-      <c r="B803" s="10"/>
+      <c r="B803" s="11"/>
     </row>
     <row r="804">
-      <c r="B804" s="10"/>
+      <c r="B804" s="11"/>
     </row>
     <row r="805">
-      <c r="B805" s="10"/>
+      <c r="B805" s="11"/>
     </row>
     <row r="806">
-      <c r="B806" s="10"/>
+      <c r="B806" s="11"/>
     </row>
     <row r="807">
-      <c r="B807" s="10"/>
+      <c r="B807" s="11"/>
     </row>
     <row r="808">
-      <c r="B808" s="10"/>
+      <c r="B808" s="11"/>
     </row>
     <row r="809">
-      <c r="B809" s="10"/>
+      <c r="B809" s="11"/>
     </row>
     <row r="810">
-      <c r="B810" s="10"/>
+      <c r="B810" s="11"/>
     </row>
     <row r="811">
-      <c r="B811" s="10"/>
+      <c r="B811" s="11"/>
     </row>
     <row r="812">
-      <c r="B812" s="10"/>
+      <c r="B812" s="11"/>
     </row>
     <row r="813">
-      <c r="B813" s="10"/>
+      <c r="B813" s="11"/>
     </row>
     <row r="814">
-      <c r="B814" s="10"/>
+      <c r="B814" s="11"/>
     </row>
     <row r="815">
-      <c r="B815" s="10"/>
+      <c r="B815" s="11"/>
     </row>
     <row r="816">
-      <c r="B816" s="10"/>
+      <c r="B816" s="11"/>
     </row>
     <row r="817">
-      <c r="B817" s="10"/>
+      <c r="B817" s="11"/>
     </row>
     <row r="818">
-      <c r="B818" s="10"/>
+      <c r="B818" s="11"/>
     </row>
     <row r="819">
-      <c r="B819" s="10"/>
+      <c r="B819" s="11"/>
     </row>
     <row r="820">
-      <c r="B820" s="10"/>
+      <c r="B820" s="11"/>
     </row>
     <row r="821">
-      <c r="B821" s="10"/>
+      <c r="B821" s="11"/>
     </row>
     <row r="822">
-      <c r="B822" s="10"/>
+      <c r="B822" s="11"/>
     </row>
     <row r="823">
-      <c r="B823" s="10"/>
+      <c r="B823" s="11"/>
     </row>
     <row r="824">
-      <c r="B824" s="10"/>
+      <c r="B824" s="11"/>
     </row>
     <row r="825">
-      <c r="B825" s="10"/>
+      <c r="B825" s="11"/>
     </row>
     <row r="826">
-      <c r="B826" s="10"/>
+      <c r="B826" s="11"/>
     </row>
     <row r="827">
-      <c r="B827" s="10"/>
+      <c r="B827" s="11"/>
     </row>
     <row r="828">
-      <c r="B828" s="10"/>
+      <c r="B828" s="11"/>
     </row>
     <row r="829">
-      <c r="B829" s="10"/>
+      <c r="B829" s="11"/>
     </row>
     <row r="830">
-      <c r="B830" s="10"/>
+      <c r="B830" s="11"/>
     </row>
     <row r="831">
-      <c r="B831" s="10"/>
+      <c r="B831" s="11"/>
     </row>
     <row r="832">
-      <c r="B832" s="10"/>
+      <c r="B832" s="11"/>
     </row>
     <row r="833">
-      <c r="B833" s="10"/>
+      <c r="B833" s="11"/>
     </row>
     <row r="834">
-      <c r="B834" s="10"/>
+      <c r="B834" s="11"/>
     </row>
     <row r="835">
-      <c r="B835" s="10"/>
+      <c r="B835" s="11"/>
     </row>
     <row r="836">
-      <c r="B836" s="10"/>
+      <c r="B836" s="11"/>
     </row>
     <row r="837">
-      <c r="B837" s="10"/>
+      <c r="B837" s="11"/>
     </row>
     <row r="838">
-      <c r="B838" s="10"/>
+      <c r="B838" s="11"/>
     </row>
     <row r="839">
-      <c r="B839" s="10"/>
+      <c r="B839" s="11"/>
     </row>
     <row r="840">
-      <c r="B840" s="10"/>
+      <c r="B840" s="11"/>
     </row>
     <row r="841">
-      <c r="B841" s="10"/>
+      <c r="B841" s="11"/>
     </row>
     <row r="842">
-      <c r="B842" s="10"/>
+      <c r="B842" s="11"/>
     </row>
     <row r="843">
-      <c r="B843" s="10"/>
+      <c r="B843" s="11"/>
     </row>
     <row r="844">
-      <c r="B844" s="10"/>
+      <c r="B844" s="11"/>
     </row>
     <row r="845">
-      <c r="B845" s="10"/>
+      <c r="B845" s="11"/>
     </row>
     <row r="846">
-      <c r="B846" s="10"/>
+      <c r="B846" s="11"/>
     </row>
     <row r="847">
-      <c r="B847" s="10"/>
+      <c r="B847" s="11"/>
     </row>
     <row r="848">
-      <c r="B848" s="10"/>
+      <c r="B848" s="11"/>
     </row>
     <row r="849">
-      <c r="B849" s="10"/>
+      <c r="B849" s="11"/>
     </row>
     <row r="850">
-      <c r="B850" s="10"/>
+      <c r="B850" s="11"/>
     </row>
     <row r="851">
-      <c r="B851" s="10"/>
+      <c r="B851" s="11"/>
     </row>
     <row r="852">
-      <c r="B852" s="10"/>
+      <c r="B852" s="11"/>
     </row>
     <row r="853">
-      <c r="B853" s="10"/>
+      <c r="B853" s="11"/>
     </row>
     <row r="854">
-      <c r="B854" s="10"/>
+      <c r="B854" s="11"/>
     </row>
     <row r="855">
-      <c r="B855" s="10"/>
+      <c r="B855" s="11"/>
     </row>
     <row r="856">
-      <c r="B856" s="10"/>
+      <c r="B856" s="11"/>
     </row>
     <row r="857">
-      <c r="B857" s="10"/>
+      <c r="B857" s="11"/>
     </row>
     <row r="858">
-      <c r="B858" s="10"/>
+      <c r="B858" s="11"/>
     </row>
     <row r="859">
-      <c r="B859" s="10"/>
+      <c r="B859" s="11"/>
     </row>
     <row r="860">
-      <c r="B860" s="10"/>
+      <c r="B860" s="11"/>
     </row>
     <row r="861">
-      <c r="B861" s="10"/>
+      <c r="B861" s="11"/>
     </row>
     <row r="862">
-      <c r="B862" s="10"/>
+      <c r="B862" s="11"/>
     </row>
     <row r="863">
-      <c r="B863" s="10"/>
+      <c r="B863" s="11"/>
     </row>
     <row r="864">
-      <c r="B864" s="10"/>
+      <c r="B864" s="11"/>
     </row>
     <row r="865">
-      <c r="B865" s="10"/>
+      <c r="B865" s="11"/>
     </row>
     <row r="866">
-      <c r="B866" s="10"/>
+      <c r="B866" s="11"/>
     </row>
     <row r="867">
-      <c r="B867" s="10"/>
+      <c r="B867" s="11"/>
     </row>
     <row r="868">
-      <c r="B868" s="10"/>
+      <c r="B868" s="11"/>
     </row>
     <row r="869">
-      <c r="B869" s="10"/>
+      <c r="B869" s="11"/>
     </row>
     <row r="870">
-      <c r="B870" s="10"/>
+      <c r="B870" s="11"/>
     </row>
     <row r="871">
-      <c r="B871" s="10"/>
+      <c r="B871" s="11"/>
     </row>
     <row r="872">
-      <c r="B872" s="10"/>
+      <c r="B872" s="11"/>
     </row>
     <row r="873">
-      <c r="B873" s="10"/>
+      <c r="B873" s="11"/>
     </row>
     <row r="874">
-      <c r="B874" s="10"/>
+      <c r="B874" s="11"/>
     </row>
     <row r="875">
-      <c r="B875" s="10"/>
+      <c r="B875" s="11"/>
     </row>
     <row r="876">
-      <c r="B876" s="10"/>
+      <c r="B876" s="11"/>
     </row>
     <row r="877">
-      <c r="B877" s="10"/>
+      <c r="B877" s="11"/>
     </row>
     <row r="878">
-      <c r="B878" s="10"/>
+      <c r="B878" s="11"/>
     </row>
     <row r="879">
-      <c r="B879" s="10"/>
+      <c r="B879" s="11"/>
     </row>
     <row r="880">
-      <c r="B880" s="10"/>
+      <c r="B880" s="11"/>
     </row>
     <row r="881">
-      <c r="B881" s="10"/>
+      <c r="B881" s="11"/>
     </row>
     <row r="882">
-      <c r="B882" s="10"/>
+      <c r="B882" s="11"/>
     </row>
     <row r="883">
-      <c r="B883" s="10"/>
+      <c r="B883" s="11"/>
     </row>
     <row r="884">
-      <c r="B884" s="10"/>
+      <c r="B884" s="11"/>
     </row>
     <row r="885">
-      <c r="B885" s="10"/>
+      <c r="B885" s="11"/>
     </row>
     <row r="886">
-      <c r="B886" s="10"/>
+      <c r="B886" s="11"/>
     </row>
     <row r="887">
-      <c r="B887" s="10"/>
+      <c r="B887" s="11"/>
     </row>
     <row r="888">
-      <c r="B888" s="10"/>
+      <c r="B888" s="11"/>
     </row>
     <row r="889">
-      <c r="B889" s="10"/>
+      <c r="B889" s="11"/>
     </row>
     <row r="890">
-      <c r="B890" s="10"/>
+      <c r="B890" s="11"/>
     </row>
     <row r="891">
-      <c r="B891" s="10"/>
+      <c r="B891" s="11"/>
     </row>
     <row r="892">
-      <c r="B892" s="10"/>
+      <c r="B892" s="11"/>
     </row>
     <row r="893">
-      <c r="B893" s="10"/>
+      <c r="B893" s="11"/>
     </row>
     <row r="894">
-      <c r="B894" s="10"/>
+      <c r="B894" s="11"/>
     </row>
     <row r="895">
-      <c r="B895" s="10"/>
+      <c r="B895" s="11"/>
     </row>
     <row r="896">
-      <c r="B896" s="10"/>
+      <c r="B896" s="11"/>
     </row>
     <row r="897">
-      <c r="B897" s="10"/>
+      <c r="B897" s="11"/>
     </row>
     <row r="898">
-      <c r="B898" s="10"/>
+      <c r="B898" s="11"/>
     </row>
     <row r="899">
-      <c r="B899" s="10"/>
+      <c r="B899" s="11"/>
     </row>
     <row r="900">
-      <c r="B900" s="10"/>
+      <c r="B900" s="11"/>
     </row>
     <row r="901">
-      <c r="B901" s="10"/>
+      <c r="B901" s="11"/>
     </row>
     <row r="902">
-      <c r="B902" s="10"/>
+      <c r="B902" s="11"/>
     </row>
     <row r="903">
-      <c r="B903" s="10"/>
+      <c r="B903" s="11"/>
     </row>
     <row r="904">
-      <c r="B904" s="10"/>
+      <c r="B904" s="11"/>
     </row>
     <row r="905">
-      <c r="B905" s="10"/>
+      <c r="B905" s="11"/>
     </row>
     <row r="906">
-      <c r="B906" s="10"/>
+      <c r="B906" s="11"/>
     </row>
     <row r="907">
-      <c r="B907" s="10"/>
+      <c r="B907" s="11"/>
     </row>
     <row r="908">
-      <c r="B908" s="10"/>
+      <c r="B908" s="11"/>
     </row>
     <row r="909">
-      <c r="B909" s="10"/>
+      <c r="B909" s="11"/>
     </row>
     <row r="910">
-      <c r="B910" s="10"/>
+      <c r="B910" s="11"/>
     </row>
     <row r="911">
-      <c r="B911" s="10"/>
+      <c r="B911" s="11"/>
     </row>
     <row r="912">
-      <c r="B912" s="10"/>
+      <c r="B912" s="11"/>
     </row>
     <row r="913">
-      <c r="B913" s="10"/>
+      <c r="B913" s="11"/>
     </row>
     <row r="914">
-      <c r="B914" s="10"/>
+      <c r="B914" s="11"/>
     </row>
     <row r="915">
-      <c r="B915" s="10"/>
+      <c r="B915" s="11"/>
     </row>
     <row r="916">
-      <c r="B916" s="10"/>
+      <c r="B916" s="11"/>
     </row>
     <row r="917">
-      <c r="B917" s="10"/>
+      <c r="B917" s="11"/>
     </row>
     <row r="918">
-      <c r="B918" s="10"/>
+      <c r="B918" s="11"/>
     </row>
     <row r="919">
-      <c r="B919" s="10"/>
+      <c r="B919" s="11"/>
     </row>
     <row r="920">
-      <c r="B920" s="10"/>
+      <c r="B920" s="11"/>
     </row>
     <row r="921">
-      <c r="B921" s="10"/>
+      <c r="B921" s="11"/>
     </row>
     <row r="922">
-      <c r="B922" s="10"/>
+      <c r="B922" s="11"/>
     </row>
     <row r="923">
-      <c r="B923" s="10"/>
+      <c r="B923" s="11"/>
     </row>
     <row r="924">
-      <c r="B924" s="10"/>
+      <c r="B924" s="11"/>
     </row>
     <row r="925">
-      <c r="B925" s="10"/>
+      <c r="B925" s="11"/>
     </row>
     <row r="926">
-      <c r="B926" s="10"/>
+      <c r="B926" s="11"/>
     </row>
     <row r="927">
-      <c r="B927" s="10"/>
+      <c r="B927" s="11"/>
     </row>
     <row r="928">
-      <c r="B928" s="10"/>
+      <c r="B928" s="11"/>
     </row>
     <row r="929">
-      <c r="B929" s="10"/>
+      <c r="B929" s="11"/>
     </row>
     <row r="930">
-      <c r="B930" s="10"/>
+      <c r="B930" s="11"/>
     </row>
     <row r="931">
-      <c r="B931" s="10"/>
+      <c r="B931" s="11"/>
     </row>
     <row r="932">
-      <c r="B932" s="10"/>
+      <c r="B932" s="11"/>
     </row>
     <row r="933">
-      <c r="B933" s="10"/>
+      <c r="B933" s="11"/>
     </row>
     <row r="934">
-      <c r="B934" s="10"/>
+      <c r="B934" s="11"/>
     </row>
     <row r="935">
-      <c r="B935" s="10"/>
+      <c r="B935" s="11"/>
     </row>
     <row r="936">
-      <c r="B936" s="10"/>
+      <c r="B936" s="11"/>
     </row>
     <row r="937">
-      <c r="B937" s="10"/>
+      <c r="B937" s="11"/>
     </row>
     <row r="938">
-      <c r="B938" s="10"/>
+      <c r="B938" s="11"/>
     </row>
     <row r="939">
-      <c r="B939" s="10"/>
+      <c r="B939" s="11"/>
     </row>
     <row r="940">
-      <c r="B940" s="10"/>
+      <c r="B940" s="11"/>
     </row>
     <row r="941">
-      <c r="B941" s="10"/>
+      <c r="B941" s="11"/>
     </row>
     <row r="942">
-      <c r="B942" s="10"/>
+      <c r="B942" s="11"/>
     </row>
     <row r="943">
-      <c r="B943" s="10"/>
+      <c r="B943" s="11"/>
     </row>
     <row r="944">
-      <c r="B944" s="10"/>
+      <c r="B944" s="11"/>
     </row>
     <row r="945">
-      <c r="B945" s="10"/>
+      <c r="B945" s="11"/>
     </row>
     <row r="946">
-      <c r="B946" s="10"/>
+      <c r="B946" s="11"/>
     </row>
     <row r="947">
-      <c r="B947" s="10"/>
+      <c r="B947" s="11"/>
     </row>
     <row r="948">
-      <c r="B948" s="10"/>
+      <c r="B948" s="11"/>
     </row>
     <row r="949">
-      <c r="B949" s="10"/>
+      <c r="B949" s="11"/>
     </row>
     <row r="950">
-      <c r="B950" s="10"/>
+      <c r="B950" s="11"/>
     </row>
     <row r="951">
-      <c r="B951" s="10"/>
+      <c r="B951" s="11"/>
     </row>
     <row r="952">
-      <c r="B952" s="10"/>
+      <c r="B952" s="11"/>
     </row>
     <row r="953">
-      <c r="B953" s="10"/>
+      <c r="B953" s="11"/>
     </row>
     <row r="954">
-      <c r="B954" s="10"/>
+      <c r="B954" s="11"/>
     </row>
     <row r="955">
-      <c r="B955" s="10"/>
+      <c r="B955" s="11"/>
     </row>
     <row r="956">
-      <c r="B956" s="10"/>
+      <c r="B956" s="11"/>
     </row>
     <row r="957">
-      <c r="B957" s="10"/>
+      <c r="B957" s="11"/>
     </row>
     <row r="958">
-      <c r="B958" s="10"/>
+      <c r="B958" s="11"/>
     </row>
     <row r="959">
-      <c r="B959" s="10"/>
+      <c r="B959" s="11"/>
     </row>
     <row r="960">
-      <c r="B960" s="10"/>
+      <c r="B960" s="11"/>
     </row>
     <row r="961">
-      <c r="B961" s="10"/>
+      <c r="B961" s="11"/>
     </row>
     <row r="962">
-      <c r="B962" s="10"/>
+      <c r="B962" s="11"/>
     </row>
     <row r="963">
-      <c r="B963" s="10"/>
+      <c r="B963" s="11"/>
     </row>
     <row r="964">
-      <c r="B964" s="10"/>
+      <c r="B964" s="11"/>
     </row>
     <row r="965">
-      <c r="B965" s="10"/>
+      <c r="B965" s="11"/>
     </row>
     <row r="966">
-      <c r="B966" s="10"/>
+      <c r="B966" s="11"/>
     </row>
     <row r="967">
-      <c r="B967" s="10"/>
+      <c r="B967" s="11"/>
     </row>
     <row r="968">
-      <c r="B968" s="10"/>
+      <c r="B968" s="11"/>
     </row>
     <row r="969">
-      <c r="B969" s="10"/>
+      <c r="B969" s="11"/>
     </row>
     <row r="970">
-      <c r="B970" s="10"/>
+      <c r="B970" s="11"/>
     </row>
     <row r="971">
-      <c r="B971" s="10"/>
+      <c r="B971" s="11"/>
     </row>
     <row r="972">
-      <c r="B972" s="10"/>
+      <c r="B972" s="11"/>
     </row>
     <row r="973">
-      <c r="B973" s="10"/>
+      <c r="B973" s="11"/>
     </row>
     <row r="974">
-      <c r="B974" s="10"/>
+      <c r="B974" s="11"/>
     </row>
     <row r="975">
-      <c r="B975" s="10"/>
+      <c r="B975" s="11"/>
     </row>
     <row r="976">
-      <c r="B976" s="10"/>
+      <c r="B976" s="11"/>
     </row>
     <row r="977">
-      <c r="B977" s="10"/>
+      <c r="B977" s="11"/>
     </row>
     <row r="978">
-      <c r="B978" s="10"/>
+      <c r="B978" s="11"/>
     </row>
     <row r="979">
-      <c r="B979" s="10"/>
+      <c r="B979" s="11"/>
     </row>
     <row r="980">
-      <c r="B980" s="10"/>
+      <c r="B980" s="11"/>
     </row>
     <row r="981">
-      <c r="B981" s="10"/>
+      <c r="B981" s="11"/>
     </row>
     <row r="982">
-      <c r="B982" s="10"/>
+      <c r="B982" s="11"/>
     </row>
     <row r="983">
-      <c r="B983" s="10"/>
+      <c r="B983" s="11"/>
     </row>
     <row r="984">
-      <c r="B984" s="10"/>
+      <c r="B984" s="11"/>
     </row>
     <row r="985">
-      <c r="B985" s="10"/>
+      <c r="B985" s="11"/>
     </row>
     <row r="986">
-      <c r="B986" s="10"/>
+      <c r="B986" s="11"/>
     </row>
     <row r="987">
-      <c r="B987" s="10"/>
+      <c r="B987" s="11"/>
     </row>
     <row r="988">
-      <c r="B988" s="10"/>
+      <c r="B988" s="11"/>
     </row>
     <row r="989">
-      <c r="B989" s="10"/>
+      <c r="B989" s="11"/>
     </row>
     <row r="990">
-      <c r="B990" s="10"/>
+      <c r="B990" s="11"/>
     </row>
     <row r="991">
-      <c r="B991" s="10"/>
+      <c r="B991" s="11"/>
     </row>
     <row r="992">
-      <c r="B992" s="10"/>
+      <c r="B992" s="11"/>
     </row>
     <row r="993">
-      <c r="B993" s="10"/>
+      <c r="B993" s="11"/>
     </row>
     <row r="994">
-      <c r="B994" s="10"/>
+      <c r="B994" s="11"/>
     </row>
     <row r="995">
-      <c r="B995" s="10"/>
+      <c r="B995" s="11"/>
     </row>
     <row r="996">
-      <c r="B996" s="10"/>
+      <c r="B996" s="11"/>
     </row>
     <row r="997">
-      <c r="B997" s="10"/>
+      <c r="B997" s="11"/>
     </row>
     <row r="998">
-      <c r="B998" s="10"/>
+      <c r="B998" s="11"/>
     </row>
     <row r="999">
-      <c r="B999" s="10"/>
+      <c r="B999" s="11"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="10"/>
+      <c r="B1000" s="11"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="10"/>
+      <c r="B1001" s="11"/>
     </row>
     <row r="1002">
-      <c r="B1002" s="10"/>
+      <c r="B1002" s="11"/>
     </row>
     <row r="1003">
-      <c r="B1003" s="10"/>
+      <c r="B1003" s="11"/>
     </row>
     <row r="1004">
-      <c r="B1004" s="10"/>
+      <c r="B1004" s="11"/>
     </row>
     <row r="1005">
-      <c r="B1005" s="10"/>
+      <c r="B1005" s="11"/>
     </row>
     <row r="1006">
-      <c r="B1006" s="10"/>
+      <c r="B1006" s="11"/>
     </row>
     <row r="1007">
-      <c r="B1007" s="10"/>
+      <c r="B1007" s="11"/>
     </row>
     <row r="1008">
-      <c r="B1008" s="10"/>
+      <c r="B1008" s="11"/>
     </row>
     <row r="1009">
-      <c r="B1009" s="10"/>
+      <c r="B1009" s="11"/>
     </row>
     <row r="1010">
-      <c r="B1010" s="10"/>
+      <c r="B1010" s="11"/>
     </row>
     <row r="1011">
-      <c r="B1011" s="10"/>
+      <c r="B1011" s="11"/>
     </row>
     <row r="1012">
-      <c r="B1012" s="10"/>
+      <c r="B1012" s="11"/>
     </row>
     <row r="1013">
-      <c r="B1013" s="10"/>
+      <c r="B1013" s="11"/>
     </row>
     <row r="1014">
-      <c r="B1014" s="10"/>
+      <c r="B1014" s="11"/>
     </row>
     <row r="1015">
-      <c r="B1015" s="10"/>
+      <c r="B1015" s="11"/>
     </row>
     <row r="1016">
-      <c r="B1016" s="10"/>
+      <c r="B1016" s="11"/>
     </row>
     <row r="1017">
-      <c r="B1017" s="10"/>
+      <c r="B1017" s="11"/>
     </row>
     <row r="1018">
-      <c r="B1018" s="10"/>
+      <c r="B1018" s="11"/>
     </row>
     <row r="1019">
-      <c r="B1019" s="10"/>
+      <c r="B1019" s="11"/>
     </row>
     <row r="1020">
-      <c r="B1020" s="10"/>
+      <c r="B1020" s="11"/>
     </row>
     <row r="1021">
-      <c r="B1021" s="10"/>
+      <c r="B1021" s="11"/>
     </row>
     <row r="1022">
-      <c r="B1022" s="10"/>
+      <c r="B1022" s="11"/>
     </row>
     <row r="1023">
-      <c r="B1023" s="10"/>
+      <c r="B1023" s="11"/>
     </row>
     <row r="1024">
-      <c r="B1024" s="10"/>
+      <c r="B1024" s="11"/>
     </row>
     <row r="1025">
-      <c r="B1025" s="10"/>
+      <c r="B1025" s="11"/>
     </row>
     <row r="1026">
-      <c r="B1026" s="10"/>
+      <c r="B1026" s="11"/>
     </row>
     <row r="1027">
-      <c r="B1027" s="10"/>
+      <c r="B1027" s="11"/>
     </row>
     <row r="1028">
-      <c r="B1028" s="10"/>
+      <c r="B1028" s="11"/>
     </row>
     <row r="1029">
-      <c r="B1029" s="10"/>
+      <c r="B1029" s="11"/>
     </row>
     <row r="1030">
-      <c r="B1030" s="10"/>
+      <c r="B1030" s="11"/>
     </row>
     <row r="1031">
-      <c r="B1031" s="10"/>
+      <c r="B1031" s="11"/>
     </row>
     <row r="1032">
-      <c r="B1032" s="10"/>
+      <c r="B1032" s="11"/>
     </row>
     <row r="1033">
-      <c r="B1033" s="10"/>
+      <c r="B1033" s="11"/>
     </row>
     <row r="1034">
-      <c r="B1034" s="10"/>
+      <c r="B1034" s="11"/>
     </row>
     <row r="1035">
-      <c r="B1035" s="10"/>
+      <c r="B1035" s="11"/>
     </row>
     <row r="1036">
-      <c r="B1036" s="10"/>
+      <c r="B1036" s="11"/>
     </row>
     <row r="1037">
-      <c r="B1037" s="10"/>
+      <c r="B1037" s="11"/>
     </row>
     <row r="1038">
-      <c r="B1038" s="10"/>
+      <c r="B1038" s="11"/>
     </row>
     <row r="1039">
-      <c r="B1039" s="10"/>
+      <c r="B1039" s="11"/>
     </row>
     <row r="1040">
-      <c r="B1040" s="10"/>
+      <c r="B1040" s="11"/>
     </row>
     <row r="1041">
-      <c r="B1041" s="10"/>
+      <c r="B1041" s="11"/>
     </row>
     <row r="1042">
-      <c r="B1042" s="10"/>
+      <c r="B1042" s="11"/>
     </row>
     <row r="1043">
-      <c r="B1043" s="10"/>
+      <c r="B1043" s="11"/>
     </row>
     <row r="1044">
-      <c r="B1044" s="10"/>
+      <c r="B1044" s="11"/>
     </row>
     <row r="1045">
-      <c r="B1045" s="10"/>
+      <c r="B1045" s="11"/>
     </row>
     <row r="1046">
-      <c r="B1046" s="10"/>
+      <c r="B1046" s="11"/>
     </row>
     <row r="1047">
-      <c r="B1047" s="10"/>
+      <c r="B1047" s="11"/>
     </row>
     <row r="1048">
-      <c r="B1048" s="10"/>
+      <c r="B1048" s="11"/>
+    </row>
+    <row r="1049">
+      <c r="B1049" s="11"/>
+    </row>
+    <row r="1050">
+      <c r="B1050" s="11"/>
+    </row>
+    <row r="1051">
+      <c r="B1051" s="11"/>
+    </row>
+    <row r="1052">
+      <c r="B1052" s="11"/>
+    </row>
+    <row r="1053">
+      <c r="B1053" s="11"/>
+    </row>
+    <row r="1054">
+      <c r="B1054" s="11"/>
+    </row>
+    <row r="1055">
+      <c r="B1055" s="11"/>
+    </row>
+    <row r="1056">
+      <c r="B1056" s="11"/>
+    </row>
+    <row r="1057">
+      <c r="B1057" s="11"/>
+    </row>
+    <row r="1058">
+      <c r="B1058" s="11"/>
+    </row>
+    <row r="1059">
+      <c r="B1059" s="11"/>
+    </row>
+    <row r="1060">
+      <c r="B1060" s="11"/>
+    </row>
+    <row r="1061">
+      <c r="B1061" s="11"/>
+    </row>
+    <row r="1062">
+      <c r="B1062" s="11"/>
+    </row>
+    <row r="1063">
+      <c r="B1063" s="11"/>
+    </row>
+    <row r="1064">
+      <c r="B1064" s="11"/>
+    </row>
+    <row r="1065">
+      <c r="B1065" s="11"/>
+    </row>
+    <row r="1066">
+      <c r="B1066" s="11"/>
+    </row>
+    <row r="1067">
+      <c r="B1067" s="11"/>
+    </row>
+    <row r="1068">
+      <c r="B1068" s="11"/>
+    </row>
+    <row r="1069">
+      <c r="B1069" s="11"/>
+    </row>
+    <row r="1070">
+      <c r="B1070" s="11"/>
+    </row>
+    <row r="1071">
+      <c r="B1071" s="11"/>
+    </row>
+    <row r="1072">
+      <c r="B1072" s="11"/>
+    </row>
+    <row r="1073">
+      <c r="B1073" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
